--- a/BackTest/2019-10-06 BackTest DVP.xlsx
+++ b/BackTest/2019-10-06 BackTest DVP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.599999999999998</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>12.00000000000005</v>
+      </c>
       <c r="L12" t="n">
         <v>31.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.699999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>7.692307692307672</v>
+      </c>
       <c r="L13" t="n">
         <v>31.32</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-36.00000000000014</v>
+      </c>
       <c r="L14" t="n">
         <v>31.29</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3.299999999999997</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-36.00000000000004</v>
+      </c>
       <c r="L15" t="n">
         <v>31.19</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3.599999999999998</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>31.13</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.699999999999996</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>31.14</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>4.099999999999994</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>31.1</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>4.499999999999993</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>31.14</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4.499999999999993</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-4.761904761904842</v>
+      </c>
       <c r="L20" t="n">
         <v>31.14</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>4.499999999999993</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-15.78947368421061</v>
+      </c>
       <c r="L21" t="n">
         <v>31.13</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>4.999999999999993</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>13.04347826086963</v>
+      </c>
       <c r="L22" t="n">
         <v>31.15</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>6.299999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>-12.90322580645164</v>
+        <v>-16.12903225806455</v>
       </c>
       <c r="L23" t="n">
         <v>31.04999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>7.499999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>5.405405405405437</v>
+        <v>19.04761904761907</v>
       </c>
       <c r="L24" t="n">
         <v>31.12</v>
@@ -1515,7 +1537,7 @@
         <v>8.499999999999996</v>
       </c>
       <c r="K25" t="n">
-        <v>-15.38461538461539</v>
+        <v>-10.20408163265306</v>
       </c>
       <c r="L25" t="n">
         <v>31.1</v>
@@ -1564,7 +1586,7 @@
         <v>9.299999999999994</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.529411764705895</v>
+        <v>3.57142857142856</v>
       </c>
       <c r="L26" t="n">
         <v>31.13</v>
@@ -1613,7 +1635,7 @@
         <v>9.699999999999992</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.204819277108452</v>
+        <v>3.57142857142856</v>
       </c>
       <c r="L27" t="n">
         <v>31.11</v>
@@ -1662,7 +1684,7 @@
         <v>9.999999999999993</v>
       </c>
       <c r="K28" t="n">
-        <v>1.176470588235312</v>
+        <v>1.818181818181844</v>
       </c>
       <c r="L28" t="n">
         <v>31.16</v>
@@ -1711,7 +1733,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>7.317073170731689</v>
+        <v>3.57142857142856</v>
       </c>
       <c r="L29" t="n">
         <v>31.18</v>
@@ -1760,7 +1782,7 @@
         <v>10.29999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>5.000000000000028</v>
+        <v>6.896551724137967</v>
       </c>
       <c r="L30" t="n">
         <v>31.22</v>
@@ -1809,7 +1831,7 @@
         <v>10.29999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>3.797468354430391</v>
+        <v>-1.886792452830148</v>
       </c>
       <c r="L31" t="n">
         <v>31.26</v>
@@ -1860,7 +1882,7 @@
         <v>10.9</v>
       </c>
       <c r="K32" t="n">
-        <v>-6.024096385542171</v>
+        <v>13.04347826086959</v>
       </c>
       <c r="L32" t="n">
         <v>31.19</v>
@@ -1911,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="K33" t="n">
-        <v>-6.024096385542171</v>
+        <v>-20.00000000000008</v>
       </c>
       <c r="L33" t="n">
         <v>31.24</v>
@@ -1962,7 +1984,7 @@
         <v>11</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="L34" t="n">
         <v>31.17</v>
@@ -2013,7 +2035,7 @@
         <v>11.4</v>
       </c>
       <c r="K35" t="n">
-        <v>6.172839506172838</v>
+        <v>-4.761904761904649</v>
       </c>
       <c r="L35" t="n">
         <v>31.24</v>
@@ -2064,7 +2086,7 @@
         <v>11.8</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.439024390243936</v>
+        <v>-4.76190476190481</v>
       </c>
       <c r="L36" t="n">
         <v>31.19</v>
@@ -2115,7 +2137,7 @@
         <v>11.8</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.70370370370371</v>
+        <v>-22.22222222222224</v>
       </c>
       <c r="L37" t="n">
         <v>31.18</v>
@@ -2166,7 +2188,7 @@
         <v>12.2</v>
       </c>
       <c r="K38" t="n">
-        <v>6.172839506172833</v>
+        <v>-4.761904761904633</v>
       </c>
       <c r="L38" t="n">
         <v>31.18</v>
@@ -2217,7 +2239,7 @@
         <v>12.2</v>
       </c>
       <c r="K39" t="n">
-        <v>1.298701298701315</v>
+        <v>-15.78947368421049</v>
       </c>
       <c r="L39" t="n">
         <v>31.17</v>
@@ -2268,7 +2290,7 @@
         <v>12.2</v>
       </c>
       <c r="K40" t="n">
-        <v>1.298701298701315</v>
+        <v>-15.78947368421049</v>
       </c>
       <c r="L40" t="n">
         <v>31.14</v>
@@ -2319,7 +2341,7 @@
         <v>12.2</v>
       </c>
       <c r="K41" t="n">
-        <v>1.298701298701315</v>
+        <v>23.07692307692299</v>
       </c>
       <c r="L41" t="n">
         <v>31.11</v>
@@ -2370,7 +2392,7 @@
         <v>12.2</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.555555555555528</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>31.14</v>
@@ -2421,7 +2443,7 @@
         <v>12.8</v>
       </c>
       <c r="K43" t="n">
-        <v>4.615384615384619</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L43" t="n">
         <v>31.12</v>
@@ -2472,7 +2494,7 @@
         <v>12.8</v>
       </c>
       <c r="K44" t="n">
-        <v>-16.98113207547171</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L44" t="n">
         <v>31.1</v>
@@ -2523,7 +2545,7 @@
         <v>12.8</v>
       </c>
       <c r="K45" t="n">
-        <v>2.325581395348784</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L45" t="n">
         <v>31.04</v>
@@ -2574,7 +2596,7 @@
         <v>12.8</v>
       </c>
       <c r="K46" t="n">
-        <v>-19.99999999999992</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L46" t="n">
         <v>31.02</v>
@@ -2625,7 +2647,7 @@
         <v>12.8</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.677419354838696</v>
+        <v>-100</v>
       </c>
       <c r="L47" t="n">
         <v>31</v>
@@ -2676,7 +2698,7 @@
         <v>12.8</v>
       </c>
       <c r="K48" t="n">
-        <v>-21.42857142857139</v>
+        <v>-100</v>
       </c>
       <c r="L48" t="n">
         <v>30.94</v>
@@ -2727,7 +2749,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>-3.030303030302952</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>30.94</v>
@@ -2778,7 +2800,7 @@
         <v>13.5</v>
       </c>
       <c r="K50" t="n">
-        <v>-6.250000000000069</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L50" t="n">
         <v>30.95</v>
@@ -2829,7 +2851,7 @@
         <v>13.6</v>
       </c>
       <c r="K51" t="n">
-        <v>-3.030303030303063</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L51" t="n">
         <v>30.96999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>13.8</v>
       </c>
       <c r="K52" t="n">
-        <v>24.13793103448266</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>31.00999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>13.8</v>
       </c>
       <c r="K53" t="n">
-        <v>28.57142857142851</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>31.10999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>14.1</v>
       </c>
       <c r="K54" t="n">
-        <v>35.48387096774188</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
         <v>31.23999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>14.1</v>
       </c>
       <c r="K55" t="n">
-        <v>25.92592592592584</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>31.36999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>14.9</v>
       </c>
       <c r="K56" t="n">
-        <v>61.29032258064508</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>31.57999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>15</v>
       </c>
       <c r="K57" t="n">
-        <v>62.49999999999994</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>31.79999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>15.1</v>
       </c>
       <c r="K58" t="n">
-        <v>58.62068965517234</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>32.02999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>15.20000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>53.3333333333332</v>
+        <v>88.23529411764692</v>
       </c>
       <c r="L59" t="n">
         <v>32.18999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>16.5</v>
       </c>
       <c r="K60" t="n">
-        <v>6.976744186046527</v>
+        <v>3.448275862069016</v>
       </c>
       <c r="L60" t="n">
         <v>32.20999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>17.6</v>
       </c>
       <c r="K61" t="n">
-        <v>25.92592592592596</v>
+        <v>26.3157894736843</v>
       </c>
       <c r="L61" t="n">
         <v>32.33</v>
@@ -3390,7 +3412,7 @@
         <v>18.20000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>13.33333333333334</v>
+        <v>9.090909090909136</v>
       </c>
       <c r="L62" t="n">
         <v>32.37</v>
@@ -3441,7 +3463,7 @@
         <v>18.30000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>23.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>32.4</v>
@@ -3492,7 +3514,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>31.14754098360656</v>
+        <v>12.50000000000002</v>
       </c>
       <c r="L64" t="n">
         <v>32.46</v>
@@ -3543,7 +3565,7 @@
         <v>21.30000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>-5.882352941176466</v>
+        <v>-40.62499999999991</v>
       </c>
       <c r="L65" t="n">
         <v>32.28</v>
@@ -3594,7 +3616,7 @@
         <v>23.20000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>13.46153846153847</v>
+        <v>-9.756097560975563</v>
       </c>
       <c r="L66" t="n">
         <v>32.21</v>
@@ -3645,7 +3667,7 @@
         <v>23.60000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>9.259259259259249</v>
+        <v>-15.29411764705881</v>
       </c>
       <c r="L67" t="n">
         <v>32.09</v>
@@ -3696,7 +3718,7 @@
         <v>24.00000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>12.5</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L68" t="n">
         <v>32.00000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>8.411214953271037</v>
+        <v>7.894736842105265</v>
       </c>
       <c r="L69" t="n">
         <v>31.93000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>25.10000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-1.724137931034474</v>
+        <v>-20</v>
       </c>
       <c r="L70" t="n">
         <v>31.89</v>
@@ -3849,7 +3871,7 @@
         <v>25.10000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>-2.608695652173915</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L71" t="n">
         <v>31.74</v>
@@ -3900,7 +3922,7 @@
         <v>25.20000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>-3.508771929824543</v>
+        <v>-10.14492753623185</v>
       </c>
       <c r="L72" t="n">
         <v>31.66</v>
@@ -3951,7 +3973,7 @@
         <v>25.60000000000002</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-13.43283582089553</v>
       </c>
       <c r="L73" t="n">
         <v>31.63</v>
@@ -4002,7 +4024,7 @@
         <v>26.00000000000002</v>
       </c>
       <c r="K74" t="n">
-        <v>-5.882352941176457</v>
+        <v>23.40425531914892</v>
       </c>
       <c r="L74" t="n">
         <v>31.5</v>
@@ -4053,7 +4075,7 @@
         <v>26.90000000000002</v>
       </c>
       <c r="K75" t="n">
-        <v>-12.49999999999999</v>
+        <v>-45.9459459459459</v>
       </c>
       <c r="L75" t="n">
         <v>31.52</v>
@@ -4104,7 +4126,7 @@
         <v>26.90000000000002</v>
       </c>
       <c r="K76" t="n">
-        <v>-19.99999999999995</v>
+        <v>-39.39393939393932</v>
       </c>
       <c r="L76" t="n">
         <v>31.34999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>27.30000000000003</v>
       </c>
       <c r="K77" t="n">
-        <v>-17.07317073170727</v>
+        <v>-39.39393939393932</v>
       </c>
       <c r="L77" t="n">
         <v>31.26</v>
@@ -4206,7 +4228,7 @@
         <v>27.60000000000003</v>
       </c>
       <c r="K78" t="n">
-        <v>-19.99999999999996</v>
+        <v>-48.57142857142856</v>
       </c>
       <c r="L78" t="n">
         <v>31.09999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>28.10000000000003</v>
       </c>
       <c r="K79" t="n">
-        <v>-14.7286821705426</v>
+        <v>-6.666666666666635</v>
       </c>
       <c r="L79" t="n">
         <v>30.98</v>
@@ -4308,7 +4330,7 @@
         <v>28.60000000000003</v>
       </c>
       <c r="K80" t="n">
-        <v>-9.090909090909086</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L80" t="n">
         <v>30.91</v>
@@ -4359,7 +4381,7 @@
         <v>28.90000000000003</v>
       </c>
       <c r="K81" t="n">
-        <v>-16.81415929203538</v>
+        <v>-13.5135135135135</v>
       </c>
       <c r="L81" t="n">
         <v>30.87</v>
@@ -4410,7 +4432,7 @@
         <v>29.00000000000003</v>
       </c>
       <c r="K82" t="n">
-        <v>-12.96296296296296</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L82" t="n">
         <v>30.81</v>
@@ -4461,7 +4483,7 @@
         <v>29.10000000000003</v>
       </c>
       <c r="K83" t="n">
-        <v>-11.11111111111108</v>
+        <v>-16.12903225806447</v>
       </c>
       <c r="L83" t="n">
         <v>30.72</v>
@@ -4512,7 +4534,7 @@
         <v>29.40000000000003</v>
       </c>
       <c r="K84" t="n">
-        <v>-19.99999999999997</v>
+        <v>4.000000000000045</v>
       </c>
       <c r="L84" t="n">
         <v>30.64</v>
@@ -4563,7 +4585,7 @@
         <v>30.00000000000003</v>
       </c>
       <c r="K85" t="n">
-        <v>10.3448275862069</v>
+        <v>22.58064516129035</v>
       </c>
       <c r="L85" t="n">
         <v>30.71</v>
@@ -4614,7 +4636,7 @@
         <v>30.60000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>-21.62162162162159</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L86" t="n">
         <v>30.72000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>31.20000000000003</v>
       </c>
       <c r="K87" t="n">
-        <v>-7.894736842105216</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L87" t="n">
         <v>30.75000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>31.90000000000004</v>
       </c>
       <c r="K88" t="n">
-        <v>-21.51898734177213</v>
+        <v>-15.78947368421052</v>
       </c>
       <c r="L88" t="n">
         <v>30.74</v>
@@ -4767,7 +4789,7 @@
         <v>32.00000000000004</v>
       </c>
       <c r="K89" t="n">
-        <v>-21.51898734177212</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>30.69</v>
@@ -4818,7 +4840,7 @@
         <v>32.00000000000004</v>
       </c>
       <c r="K90" t="n">
-        <v>-10.14492753623184</v>
+        <v>-9.677419354838685</v>
       </c>
       <c r="L90" t="n">
         <v>30.69</v>
@@ -4869,7 +4891,7 @@
         <v>32.10000000000004</v>
       </c>
       <c r="K91" t="n">
-        <v>-11.4285714285714</v>
+        <v>-9.677419354838685</v>
       </c>
       <c r="L91" t="n">
         <v>30.65</v>
@@ -4920,7 +4942,7 @@
         <v>32.60000000000004</v>
       </c>
       <c r="K92" t="n">
-        <v>-5.405405405405419</v>
+        <v>2.857142857142784</v>
       </c>
       <c r="L92" t="n">
         <v>30.67</v>
@@ -4971,7 +4993,7 @@
         <v>32.60000000000004</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.4285714285714</v>
+        <v>12.4999999999999</v>
       </c>
       <c r="L93" t="n">
         <v>30.68</v>
@@ -5022,7 +5044,7 @@
         <v>32.80000000000004</v>
       </c>
       <c r="K94" t="n">
-        <v>-8.823529411764703</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L94" t="n">
         <v>30.7</v>
@@ -5073,7 +5095,7 @@
         <v>33.00000000000004</v>
       </c>
       <c r="K95" t="n">
-        <v>1.6393442622951</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>30.63999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>33.10000000000004</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-36.84210526315786</v>
       </c>
       <c r="L96" t="n">
         <v>30.62999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>33.20000000000005</v>
       </c>
       <c r="K97" t="n">
-        <v>-8.474576271186413</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L97" t="n">
         <v>30.54999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>33.60000000000004</v>
       </c>
       <c r="K98" t="n">
-        <v>3.333333333333312</v>
+        <v>12.49999999999994</v>
       </c>
       <c r="L98" t="n">
         <v>30.57999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>33.70000000000005</v>
       </c>
       <c r="K99" t="n">
-        <v>-7.142857142857093</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L99" t="n">
         <v>30.58999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>33.80000000000005</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L100" t="n">
         <v>30.58999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>33.90000000000005</v>
       </c>
       <c r="K101" t="n">
-        <v>-3.999999999999969</v>
+        <v>-23.07692307692279</v>
       </c>
       <c r="L101" t="n">
         <v>30.61</v>
@@ -5430,7 +5452,7 @@
         <v>34.00000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>-3.999999999999969</v>
+        <v>-28.57142857142835</v>
       </c>
       <c r="L102" t="n">
         <v>30.57</v>
@@ -5481,7 +5503,7 @@
         <v>34.00000000000005</v>
       </c>
       <c r="K103" t="n">
-        <v>-6.122448979591826</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L103" t="n">
         <v>30.53</v>
@@ -5532,7 +5554,7 @@
         <v>34.10000000000005</v>
       </c>
       <c r="K104" t="n">
-        <v>-2.127659574468106</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L104" t="n">
         <v>30.5</v>
@@ -5583,7 +5605,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K105" t="n">
-        <v>-20.93023255813948</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L105" t="n">
         <v>30.47</v>
@@ -5634,7 +5656,7 @@
         <v>34.40000000000005</v>
       </c>
       <c r="K106" t="n">
-        <v>-10.52631578947361</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L106" t="n">
         <v>30.44</v>
@@ -5685,7 +5707,7 @@
         <v>34.50000000000004</v>
       </c>
       <c r="K107" t="n">
-        <v>-27.27272727272727</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L107" t="n">
         <v>30.43</v>
@@ -5736,7 +5758,7 @@
         <v>34.90000000000005</v>
       </c>
       <c r="K108" t="n">
-        <v>6.666666666666737</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>30.42000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>35.10000000000005</v>
       </c>
       <c r="K109" t="n">
-        <v>-3.22580645161294</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L109" t="n">
         <v>30.4</v>
@@ -5838,7 +5860,7 @@
         <v>35.60000000000005</v>
       </c>
       <c r="K110" t="n">
-        <v>11.11111111111104</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L110" t="n">
         <v>30.44</v>
@@ -5889,7 +5911,7 @@
         <v>35.70000000000005</v>
       </c>
       <c r="K111" t="n">
-        <v>11.11111111111117</v>
+        <v>17.6470588235295</v>
       </c>
       <c r="L111" t="n">
         <v>30.46</v>
@@ -5940,7 +5962,7 @@
         <v>35.80000000000005</v>
       </c>
       <c r="K112" t="n">
-        <v>-6.249999999999972</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L112" t="n">
         <v>30.48</v>
@@ -5991,7 +6013,7 @@
         <v>35.80000000000005</v>
       </c>
       <c r="K113" t="n">
-        <v>-6.249999999999972</v>
+        <v>17.6470588235295</v>
       </c>
       <c r="L113" t="n">
         <v>30.49999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>35.80000000000005</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>33.33333333333349</v>
       </c>
       <c r="L114" t="n">
         <v>30.52999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>35.90000000000005</v>
       </c>
       <c r="K115" t="n">
-        <v>3.448275862069008</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>30.57</v>
@@ -6144,7 +6166,7 @@
         <v>36.20000000000005</v>
       </c>
       <c r="K116" t="n">
-        <v>16.12903225806451</v>
+        <v>41.17647058823518</v>
       </c>
       <c r="L116" t="n">
         <v>30.65</v>
@@ -6195,7 +6217,7 @@
         <v>36.40000000000005</v>
       </c>
       <c r="K117" t="n">
-        <v>12.49999999999994</v>
+        <v>6.666666666666525</v>
       </c>
       <c r="L117" t="n">
         <v>30.7</v>
@@ -6246,7 +6268,7 @@
         <v>36.40000000000005</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L118" t="n">
         <v>30.70999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>36.40000000000005</v>
       </c>
       <c r="K119" t="n">
-        <v>3.703703703703621</v>
+        <v>-25</v>
       </c>
       <c r="L119" t="n">
         <v>30.73999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>36.90000000000005</v>
       </c>
       <c r="K120" t="n">
-        <v>22.58064516129029</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L120" t="n">
         <v>30.76999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>37.40000000000005</v>
       </c>
       <c r="K121" t="n">
-        <v>31.42857142857137</v>
+        <v>62.49999999999994</v>
       </c>
       <c r="L121" t="n">
         <v>30.85999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>37.40000000000005</v>
       </c>
       <c r="K122" t="n">
-        <v>35.29411764705881</v>
+        <v>62.49999999999994</v>
       </c>
       <c r="L122" t="n">
         <v>30.95999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>37.70000000000005</v>
       </c>
       <c r="K123" t="n">
-        <v>40.54054054054059</v>
+        <v>68.42105263157904</v>
       </c>
       <c r="L123" t="n">
         <v>31.08999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>38.10000000000004</v>
       </c>
       <c r="K124" t="n">
-        <v>30.00000000000013</v>
+        <v>45.45454545454554</v>
       </c>
       <c r="L124" t="n">
         <v>31.18</v>
@@ -6603,7 +6625,7 @@
         <v>38.20000000000005</v>
       </c>
       <c r="K125" t="n">
-        <v>38.46153846153855</v>
+        <v>40.00000000000004</v>
       </c>
       <c r="L125" t="n">
         <v>31.28999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>38.20000000000005</v>
       </c>
       <c r="K126" t="n">
-        <v>42.10526315789471</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L126" t="n">
         <v>31.36999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>38.40000000000005</v>
       </c>
       <c r="K127" t="n">
-        <v>43.58974358974351</v>
+        <v>59.99999999999996</v>
       </c>
       <c r="L127" t="n">
         <v>31.48999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>38.40000000000005</v>
       </c>
       <c r="K128" t="n">
-        <v>37.14285714285706</v>
+        <v>59.99999999999996</v>
       </c>
       <c r="L128" t="n">
         <v>31.60999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>38.60000000000005</v>
       </c>
       <c r="K129" t="n">
-        <v>37.14285714285716</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L129" t="n">
         <v>31.70999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>38.60000000000005</v>
       </c>
       <c r="K130" t="n">
-        <v>26.66666666666669</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>31.75999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>38.60000000000005</v>
       </c>
       <c r="K131" t="n">
-        <v>31.03448275862058</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>31.75999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>38.70000000000005</v>
       </c>
       <c r="K132" t="n">
-        <v>31.03448275862078</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L132" t="n">
         <v>31.74999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>39.00000000000004</v>
       </c>
       <c r="K133" t="n">
-        <v>18.75000000000007</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L133" t="n">
         <v>31.68</v>
@@ -7062,7 +7084,7 @@
         <v>39.00000000000004</v>
       </c>
       <c r="K134" t="n">
-        <v>18.75000000000007</v>
+        <v>-50</v>
       </c>
       <c r="L134" t="n">
         <v>31.65</v>
@@ -7113,7 +7135,7 @@
         <v>39.50000000000004</v>
       </c>
       <c r="K135" t="n">
-        <v>33.33333333333336</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L135" t="n">
         <v>31.66</v>
@@ -7164,7 +7186,7 @@
         <v>40.00000000000004</v>
       </c>
       <c r="K136" t="n">
-        <v>10.52631578947375</v>
+        <v>-37.5</v>
       </c>
       <c r="L136" t="n">
         <v>31.62</v>
@@ -7215,7 +7237,7 @@
         <v>40.00000000000004</v>
       </c>
       <c r="K137" t="n">
-        <v>16.66666666666673</v>
+        <v>-37.5</v>
       </c>
       <c r="L137" t="n">
         <v>31.56</v>
@@ -7266,7 +7288,7 @@
         <v>40.10000000000004</v>
       </c>
       <c r="K138" t="n">
-        <v>13.51351351351353</v>
+        <v>-33.33333333333349</v>
       </c>
       <c r="L138" t="n">
         <v>31.49</v>
@@ -7317,7 +7339,7 @@
         <v>40.20000000000005</v>
       </c>
       <c r="K139" t="n">
-        <v>15.78947368421058</v>
+        <v>-25</v>
       </c>
       <c r="L139" t="n">
         <v>31.45000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>40.50000000000004</v>
       </c>
       <c r="K140" t="n">
-        <v>-5.555555555555545</v>
+        <v>-36.84210526315802</v>
       </c>
       <c r="L140" t="n">
         <v>31.38000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>40.80000000000004</v>
       </c>
       <c r="K141" t="n">
-        <v>-11.76470588235293</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L141" t="n">
         <v>31.34000000000001</v>
@@ -7470,7 +7492,7 @@
         <v>41.00000000000004</v>
       </c>
       <c r="K142" t="n">
-        <v>-16.66666666666663</v>
+        <v>-9.999999999999964</v>
       </c>
       <c r="L142" t="n">
         <v>31.29000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>41.00000000000004</v>
       </c>
       <c r="K143" t="n">
-        <v>-27.27272727272726</v>
+        <v>-9.999999999999964</v>
       </c>
       <c r="L143" t="n">
         <v>31.27000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>41.60000000000004</v>
       </c>
       <c r="K144" t="n">
-        <v>2.857142857142802</v>
+        <v>-4.761904761904842</v>
       </c>
       <c r="L144" t="n">
         <v>31.31000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>42.10000000000004</v>
       </c>
       <c r="K145" t="n">
-        <v>-12.82051282051285</v>
+        <v>-4.761904761904842</v>
       </c>
       <c r="L145" t="n">
         <v>31.25000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>42.60000000000004</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>15.38461538461536</v>
       </c>
       <c r="L146" t="n">
         <v>31.29</v>
@@ -7725,7 +7747,7 @@
         <v>42.60000000000004</v>
       </c>
       <c r="K147" t="n">
-        <v>-4.761904761904758</v>
+        <v>20.00000000000006</v>
       </c>
       <c r="L147" t="n">
         <v>31.33</v>
@@ -7776,7 +7798,7 @@
         <v>42.60000000000004</v>
       </c>
       <c r="K148" t="n">
-        <v>-4.761904761904758</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L148" t="n">
         <v>31.38</v>
@@ -7827,7 +7849,7 @@
         <v>43.00000000000004</v>
       </c>
       <c r="K149" t="n">
-        <v>-9.090909090909092</v>
+        <v>12.00000000000006</v>
       </c>
       <c r="L149" t="n">
         <v>31.38</v>
@@ -7878,7 +7900,7 @@
         <v>43.30000000000004</v>
       </c>
       <c r="K150" t="n">
-        <v>-14.89361702127662</v>
+        <v>-12.00000000000003</v>
       </c>
       <c r="L150" t="n">
         <v>31.38</v>
@@ -7929,7 +7951,7 @@
         <v>43.80000000000004</v>
       </c>
       <c r="K151" t="n">
-        <v>-3.846153846153841</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L151" t="n">
         <v>31.4</v>
@@ -7980,7 +8002,7 @@
         <v>43.80000000000004</v>
       </c>
       <c r="K152" t="n">
-        <v>-1.96078431372552</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L152" t="n">
         <v>31.44</v>
@@ -8031,7 +8053,7 @@
         <v>43.90000000000004</v>
       </c>
       <c r="K153" t="n">
-        <v>6.122448979591853</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L153" t="n">
         <v>31.49</v>
@@ -8082,7 +8104,7 @@
         <v>44.90000000000004</v>
       </c>
       <c r="K154" t="n">
-        <v>-11.86440677966101</v>
+        <v>-21.42857142857132</v>
       </c>
       <c r="L154" t="n">
         <v>31.38</v>
@@ -8133,7 +8155,7 @@
         <v>45.80000000000004</v>
       </c>
       <c r="K155" t="n">
-        <v>-4.761904761904775</v>
+        <v>-6.249999999999972</v>
       </c>
       <c r="L155" t="n">
         <v>31.41</v>
@@ -8184,7 +8206,7 @@
         <v>46.70000000000004</v>
       </c>
       <c r="K156" t="n">
-        <v>-10.44776119402985</v>
+        <v>-26.82926829268287</v>
       </c>
       <c r="L156" t="n">
         <v>31.3</v>
@@ -8235,7 +8257,7 @@
         <v>46.90000000000003</v>
       </c>
       <c r="K157" t="n">
-        <v>-7.246376811594211</v>
+        <v>-20.93023255813952</v>
       </c>
       <c r="L157" t="n">
         <v>31.21000000000001</v>
@@ -8286,7 +8308,7 @@
         <v>47.20000000000003</v>
       </c>
       <c r="K158" t="n">
-        <v>-1.408450704225324</v>
+        <v>-4.761904761904749</v>
       </c>
       <c r="L158" t="n">
         <v>31.15000000000001</v>
@@ -8337,7 +8359,7 @@
         <v>47.60000000000004</v>
       </c>
       <c r="K159" t="n">
-        <v>-8.108108108108137</v>
+        <v>-6.976744186046532</v>
       </c>
       <c r="L159" t="n">
         <v>31.09000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>47.70000000000004</v>
       </c>
       <c r="K160" t="n">
-        <v>-2.77777777777777</v>
+        <v>-17.94871794871794</v>
       </c>
       <c r="L160" t="n">
         <v>31.07000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>47.90000000000003</v>
       </c>
       <c r="K161" t="n">
-        <v>-4.225352112676069</v>
+        <v>-12.19512195121953</v>
       </c>
       <c r="L161" t="n">
         <v>31.02000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>48.00000000000004</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>-12.19512195121953</v>
       </c>
       <c r="L162" t="n">
         <v>30.98000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>48.10000000000004</v>
       </c>
       <c r="K163" t="n">
-        <v>-1.408450704225373</v>
+        <v>12.49999999999997</v>
       </c>
       <c r="L163" t="n">
         <v>30.92000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>48.60000000000004</v>
       </c>
       <c r="K164" t="n">
-        <v>-2.857142857142847</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>31.01000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>49.40000000000003</v>
       </c>
       <c r="K165" t="n">
-        <v>-6.849315068493153</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L165" t="n">
         <v>30.93000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>49.50000000000003</v>
       </c>
       <c r="K166" t="n">
-        <v>-15.94202898550723</v>
+        <v>-7.692307692307682</v>
       </c>
       <c r="L166" t="n">
         <v>30.93000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>50.00000000000003</v>
       </c>
       <c r="K167" t="n">
-        <v>-8.108108108108089</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>30.96000000000001</v>
@@ -8796,7 +8818,7 @@
         <v>50.90000000000003</v>
       </c>
       <c r="K168" t="n">
-        <v>-18.07228915662651</v>
+        <v>-15.15151515151517</v>
       </c>
       <c r="L168" t="n">
         <v>30.87</v>
@@ -8847,7 +8869,7 @@
         <v>51.10000000000004</v>
       </c>
       <c r="K169" t="n">
-        <v>-16.04938271604939</v>
+        <v>-23.52941176470591</v>
       </c>
       <c r="L169" t="n">
         <v>30.8</v>
@@ -8898,7 +8920,7 @@
         <v>52.00000000000004</v>
       </c>
       <c r="K170" t="n">
-        <v>-1.149425287356339</v>
+        <v>-2.439024390243936</v>
       </c>
       <c r="L170" t="n">
         <v>30.81</v>
@@ -8949,7 +8971,7 @@
         <v>52.70000000000003</v>
       </c>
       <c r="K171" t="n">
-        <v>-14.60674157303373</v>
+        <v>-19.14893617021283</v>
       </c>
       <c r="L171" t="n">
         <v>30.73</v>
@@ -9000,7 +9022,7 @@
         <v>53.50000000000003</v>
       </c>
       <c r="K172" t="n">
-        <v>-5.154639175257738</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>30.72</v>
@@ -9051,7 +9073,7 @@
         <v>53.60000000000003</v>
       </c>
       <c r="K173" t="n">
-        <v>-5.154639175257738</v>
+        <v>-7.999999999999983</v>
       </c>
       <c r="L173" t="n">
         <v>30.73</v>
@@ -9102,7 +9124,7 @@
         <v>53.70000000000003</v>
       </c>
       <c r="K174" t="n">
-        <v>4.545454545454534</v>
+        <v>6.976744186046532</v>
       </c>
       <c r="L174" t="n">
         <v>30.68</v>
@@ -9153,7 +9175,7 @@
         <v>54.00000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>-9.756097560975633</v>
+        <v>2.222222222222175</v>
       </c>
       <c r="L175" t="n">
         <v>30.68</v>
@@ -9204,7 +9226,7 @@
         <v>54.10000000000003</v>
       </c>
       <c r="K176" t="n">
-        <v>2.702702702702696</v>
+        <v>-7.317073170731722</v>
       </c>
       <c r="L176" t="n">
         <v>30.7</v>
@@ -9255,7 +9277,7 @@
         <v>54.50000000000003</v>
       </c>
       <c r="K177" t="n">
-        <v>-5.263157894736874</v>
+        <v>5.555555555555545</v>
       </c>
       <c r="L177" t="n">
         <v>30.63</v>
@@ -9306,7 +9328,7 @@
         <v>55.00000000000003</v>
       </c>
       <c r="K178" t="n">
-        <v>-2.564102564102602</v>
+        <v>23.07692307692309</v>
       </c>
       <c r="L178" t="n">
         <v>30.7</v>
@@ -9357,7 +9379,7 @@
         <v>55.10000000000002</v>
       </c>
       <c r="K179" t="n">
-        <v>1.333333333333355</v>
+        <v>-3.225806451612848</v>
       </c>
       <c r="L179" t="n">
         <v>30.77999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>55.10000000000002</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>25.00000000000015</v>
       </c>
       <c r="L180" t="n">
         <v>30.77</v>
@@ -9459,7 +9481,7 @@
         <v>55.30000000000003</v>
       </c>
       <c r="K181" t="n">
-        <v>-5.405405405405393</v>
+        <v>-22.22222222222218</v>
       </c>
       <c r="L181" t="n">
         <v>30.81</v>
@@ -9510,7 +9532,7 @@
         <v>55.40000000000003</v>
       </c>
       <c r="K182" t="n">
-        <v>-8.108108108108137</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L182" t="n">
         <v>30.76</v>
@@ -9561,7 +9583,7 @@
         <v>55.60000000000002</v>
       </c>
       <c r="K183" t="n">
-        <v>-4.000000000000017</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L183" t="n">
         <v>30.72</v>
@@ -9612,7 +9634,7 @@
         <v>55.80000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>-13.88888888888891</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L184" t="n">
         <v>30.67</v>
@@ -9663,7 +9685,7 @@
         <v>55.80000000000003</v>
       </c>
       <c r="K185" t="n">
-        <v>-3.124999999999993</v>
+        <v>-17.6470588235295</v>
       </c>
       <c r="L185" t="n">
         <v>30.65</v>
@@ -9714,7 +9736,7 @@
         <v>56.00000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>-4.615384615384626</v>
+        <v>-6.666666666666525</v>
       </c>
       <c r="L186" t="n">
         <v>30.6</v>
@@ -9765,7 +9787,7 @@
         <v>56.00000000000003</v>
       </c>
       <c r="K187" t="n">
-        <v>-13.33333333333334</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L187" t="n">
         <v>30.59</v>
@@ -9816,7 +9838,7 @@
         <v>56.00000000000003</v>
       </c>
       <c r="K188" t="n">
-        <v>1.96078431372552</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L188" t="n">
         <v>30.53000000000001</v>
@@ -9867,7 +9889,7 @@
         <v>56.10000000000003</v>
       </c>
       <c r="K189" t="n">
-        <v>3.999999999999992</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L189" t="n">
         <v>30.47000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>56.30000000000003</v>
       </c>
       <c r="K190" t="n">
-        <v>-20.93023255813955</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L190" t="n">
         <v>30.39</v>
@@ -9969,7 +9991,7 @@
         <v>56.30000000000003</v>
       </c>
       <c r="K191" t="n">
-        <v>-5.555555555555545</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L191" t="n">
         <v>30.33</v>
@@ -10020,7 +10042,7 @@
         <v>56.40000000000003</v>
       </c>
       <c r="K192" t="n">
-        <v>-37.93103448275869</v>
+        <v>-99.99999999999956</v>
       </c>
       <c r="L192" t="n">
         <v>30.27</v>
@@ -10071,7 +10093,7 @@
         <v>56.40000000000003</v>
       </c>
       <c r="K193" t="n">
-        <v>-42.857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L193" t="n">
         <v>30.19</v>
@@ -10122,7 +10144,7 @@
         <v>56.80000000000003</v>
       </c>
       <c r="K194" t="n">
-        <v>-48.38709677419364</v>
+        <v>-100</v>
       </c>
       <c r="L194" t="n">
         <v>30.09</v>
@@ -10173,7 +10195,7 @@
         <v>56.80000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>-42.85714285714288</v>
+        <v>-100.0000000000004</v>
       </c>
       <c r="L195" t="n">
         <v>29.99</v>
@@ -10224,7 +10246,7 @@
         <v>57.00000000000003</v>
       </c>
       <c r="K196" t="n">
-        <v>-37.93103448275869</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L196" t="n">
         <v>29.93</v>
@@ -10275,7 +10297,7 @@
         <v>57.10000000000002</v>
       </c>
       <c r="K197" t="n">
-        <v>-30.76923076923073</v>
+        <v>-63.6363636363639</v>
       </c>
       <c r="L197" t="n">
         <v>29.86</v>
@@ -10326,7 +10348,7 @@
         <v>57.10000000000002</v>
       </c>
       <c r="K198" t="n">
-        <v>-61.90476190476194</v>
+        <v>-60.00000000000021</v>
       </c>
       <c r="L198" t="n">
         <v>29.79</v>
@@ -10377,7 +10399,7 @@
         <v>57.10000000000002</v>
       </c>
       <c r="K199" t="n">
-        <v>-59.99999999999996</v>
+        <v>-50</v>
       </c>
       <c r="L199" t="n">
         <v>29.73</v>
@@ -10428,7 +10450,7 @@
         <v>57.10000000000002</v>
       </c>
       <c r="K200" t="n">
-        <v>-59.99999999999996</v>
+        <v>-50</v>
       </c>
       <c r="L200" t="n">
         <v>29.69</v>
@@ -10479,7 +10501,7 @@
         <v>57.20000000000002</v>
       </c>
       <c r="K201" t="n">
-        <v>-47.3684210526319</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L201" t="n">
         <v>29.66</v>
@@ -10530,7 +10552,7 @@
         <v>57.20000000000002</v>
       </c>
       <c r="K202" t="n">
-        <v>-44.44444444444473</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L202" t="n">
         <v>29.64</v>
@@ -10581,7 +10603,7 @@
         <v>57.70000000000002</v>
       </c>
       <c r="K203" t="n">
-        <v>-23.80952380952387</v>
+        <v>77.77777777777844</v>
       </c>
       <c r="L203" t="n">
         <v>29.67000000000001</v>
@@ -10632,7 +10654,7 @@
         <v>58.00000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>-27.27272727272748</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L204" t="n">
         <v>29.71</v>
@@ -10683,7 +10705,7 @@
         <v>58.00000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>-27.27272727272748</v>
+        <v>20.00000000000021</v>
       </c>
       <c r="L205" t="n">
         <v>29.75</v>
@@ -10734,7 +10756,7 @@
         <v>58.30000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>-4.347826086956616</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L206" t="n">
         <v>29.8</v>
@@ -10785,7 +10807,7 @@
         <v>58.60000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>-15.38461538461559</v>
+        <v>20</v>
       </c>
       <c r="L207" t="n">
         <v>29.82999999999999</v>
@@ -10836,7 +10858,7 @@
         <v>58.70000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>-11.11111111111121</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L208" t="n">
         <v>29.86999999999999</v>
@@ -10887,7 +10909,7 @@
         <v>58.70000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>-7.692307692307724</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L209" t="n">
         <v>29.90999999999999</v>
@@ -10938,7 +10960,7 @@
         <v>59.00000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>11.11111111111118</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L210" t="n">
         <v>29.97999999999999</v>
@@ -10989,7 +11011,7 @@
         <v>59.30000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L211" t="n">
         <v>30.00999999999999</v>
@@ -11040,7 +11062,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>-17.6470588235295</v>
       </c>
       <c r="L212" t="n">
         <v>30.02999999999999</v>
@@ -11091,7 +11113,7 @@
         <v>59.70000000000002</v>
       </c>
       <c r="K213" t="n">
-        <v>9.09090909090914</v>
+        <v>17.64705882352942</v>
       </c>
       <c r="L213" t="n">
         <v>30.02999999999999</v>
@@ -11142,7 +11164,7 @@
         <v>59.80000000000002</v>
       </c>
       <c r="K214" t="n">
-        <v>26.66666666666676</v>
+        <v>22.22222222222229</v>
       </c>
       <c r="L214" t="n">
         <v>30.06999999999999</v>
@@ -11193,7 +11215,7 @@
         <v>60.00000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>31.25000000000011</v>
+        <v>17.64705882352942</v>
       </c>
       <c r="L215" t="n">
         <v>30.13</v>
@@ -11244,7 +11266,7 @@
         <v>60.10000000000002</v>
       </c>
       <c r="K216" t="n">
-        <v>29.03225806451632</v>
+        <v>46.66666666666664</v>
       </c>
       <c r="L216" t="n">
         <v>30.17</v>
@@ -11295,7 +11317,7 @@
         <v>60.60000000000002</v>
       </c>
       <c r="K217" t="n">
-        <v>42.85714285714295</v>
+        <v>57.89473684210517</v>
       </c>
       <c r="L217" t="n">
         <v>30.29</v>
@@ -11346,7 +11368,7 @@
         <v>61.00000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>28.20512820512821</v>
+        <v>30.43478260869556</v>
       </c>
       <c r="L218" t="n">
         <v>30.36</v>
@@ -11397,7 +11419,7 @@
         <v>61.30000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>33.33333333333339</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L219" t="n">
         <v>30.46</v>
@@ -11448,7 +11470,7 @@
         <v>61.30000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>33.33333333333339</v>
+        <v>50</v>
       </c>
       <c r="L220" t="n">
         <v>30.53</v>
@@ -11499,7 +11521,7 @@
         <v>61.60000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>22.72727272727277</v>
+        <v>36.36363636363647</v>
       </c>
       <c r="L221" t="n">
         <v>30.6</v>
@@ -11550,7 +11572,7 @@
         <v>61.80000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>26.08695652173915</v>
+        <v>33.33333333333339</v>
       </c>
       <c r="L222" t="n">
         <v>30.7</v>
@@ -11601,7 +11623,7 @@
         <v>61.90000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>19.04761904761908</v>
+        <v>33.33333333333339</v>
       </c>
       <c r="L223" t="n">
         <v>30.78</v>
@@ -11652,7 +11674,7 @@
         <v>62.60000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>8.6956521739131</v>
+        <v>-7.692307692307682</v>
       </c>
       <c r="L224" t="n">
         <v>30.78</v>
@@ -11703,7 +11725,7 @@
         <v>63.10000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>17.64705882352947</v>
+        <v>6.666666666666658</v>
       </c>
       <c r="L225" t="n">
         <v>30.81</v>
@@ -11754,7 +11776,7 @@
         <v>63.30000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>8.000000000000043</v>
+        <v>-18.51851851851855</v>
       </c>
       <c r="L226" t="n">
         <v>30.81</v>
@@ -11805,7 +11827,7 @@
         <v>63.80000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>3.846153846153898</v>
+        <v>-21.42857142857137</v>
       </c>
       <c r="L227" t="n">
         <v>30.71</v>
@@ -11856,7 +11878,7 @@
         <v>64.30000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>10.71428571428574</v>
+        <v>-13.33333333333329</v>
       </c>
       <c r="L228" t="n">
         <v>30.70000000000001</v>
@@ -11907,7 +11929,7 @@
         <v>64.70000000000002</v>
       </c>
       <c r="K229" t="n">
-        <v>3.333333333333317</v>
+        <v>-23.52941176470586</v>
       </c>
       <c r="L229" t="n">
         <v>30.62</v>
@@ -11958,7 +11980,7 @@
         <v>65.10000000000002</v>
       </c>
       <c r="K230" t="n">
-        <v>4.91803278688525</v>
+        <v>-2.857142857142784</v>
       </c>
       <c r="L230" t="n">
         <v>30.58000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>65.40000000000002</v>
       </c>
       <c r="K231" t="n">
-        <v>4.91803278688525</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L231" t="n">
         <v>30.54000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>65.60000000000002</v>
       </c>
       <c r="K232" t="n">
-        <v>3.225806451612944</v>
+        <v>-24.32432432432422</v>
       </c>
       <c r="L232" t="n">
         <v>30.46000000000002</v>
@@ -12111,7 +12133,7 @@
         <v>66.10000000000002</v>
       </c>
       <c r="K233" t="n">
-        <v>6.250000000000028</v>
+        <v>8.571428571428557</v>
       </c>
       <c r="L233" t="n">
         <v>30.42000000000002</v>
@@ -12162,7 +12184,7 @@
         <v>66.50000000000003</v>
       </c>
       <c r="K234" t="n">
-        <v>-1.492537313432855</v>
+        <v>-17.64705882352935</v>
       </c>
       <c r="L234" t="n">
         <v>30.41000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>66.80000000000003</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>-2.857142857142886</v>
       </c>
       <c r="L235" t="n">
         <v>30.38000000000001</v>
@@ -12264,7 +12286,7 @@
         <v>67.20000000000002</v>
       </c>
       <c r="K236" t="n">
-        <v>-7.042253521126759</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>30.33000000000001</v>
@@ -12315,7 +12337,7 @@
         <v>67.20000000000002</v>
       </c>
       <c r="K237" t="n">
-        <v>-15.15151515151515</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L237" t="n">
         <v>30.33000000000001</v>
@@ -12366,7 +12388,7 @@
         <v>67.30000000000001</v>
       </c>
       <c r="K238" t="n">
-        <v>-7.93650793650794</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>30.29000000000001</v>
@@ -12417,7 +12439,7 @@
         <v>67.60000000000001</v>
       </c>
       <c r="K239" t="n">
-        <v>-7.93650793650794</v>
+        <v>-4.00000000000008</v>
       </c>
       <c r="L239" t="n">
         <v>30.32000000000001</v>
@@ -12468,7 +12490,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K240" t="n">
-        <v>-12.12121212121214</v>
+        <v>-4.00000000000008</v>
       </c>
       <c r="L240" t="n">
         <v>30.28000000000001</v>
@@ -12519,7 +12541,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>-7.93650793650794</v>
+        <v>4.347826086956461</v>
       </c>
       <c r="L241" t="n">
         <v>30.27</v>
@@ -12570,7 +12592,7 @@
         <v>68.2</v>
       </c>
       <c r="K242" t="n">
-        <v>-6.249999999999986</v>
+        <v>-4.761904761904875</v>
       </c>
       <c r="L242" t="n">
         <v>30.31</v>
@@ -12621,7 +12643,7 @@
         <v>68.30000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>-6.24999999999998</v>
+        <v>22.22222222222255</v>
       </c>
       <c r="L243" t="n">
         <v>30.31</v>
@@ -12672,7 +12694,7 @@
         <v>68.30000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>5.263157894736852</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L244" t="n">
         <v>30.35</v>
@@ -12723,7 +12745,7 @@
         <v>68.50000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>53.84615384615391</v>
       </c>
       <c r="L245" t="n">
         <v>30.38000000000001</v>
@@ -12774,7 +12796,7 @@
         <v>68.60000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>1.886792452830145</v>
+        <v>42.85714285714253</v>
       </c>
       <c r="L246" t="n">
         <v>30.44</v>
@@ -12825,7 +12847,7 @@
         <v>68.60000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>12.49999999999993</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L247" t="n">
         <v>30.5</v>
@@ -12876,7 +12898,7 @@
         <v>68.70000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L248" t="n">
         <v>30.54</v>
@@ -12927,7 +12949,7 @@
         <v>68.70000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>10.00000000000005</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L249" t="n">
         <v>30.55</v>
@@ -12978,7 +13000,7 @@
         <v>68.70000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L250" t="n">
         <v>30.59000000000001</v>
@@ -13029,7 +13051,7 @@
         <v>69.10000000000002</v>
       </c>
       <c r="K251" t="n">
-        <v>-2.702702702702739</v>
+        <v>-33.33333333333267</v>
       </c>
       <c r="L251" t="n">
         <v>30.59000000000001</v>
@@ -13080,7 +13102,7 @@
         <v>69.10000000000002</v>
       </c>
       <c r="K252" t="n">
-        <v>2.857142857142796</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L252" t="n">
         <v>30.56000000000001</v>
@@ -13131,7 +13153,7 @@
         <v>69.40000000000002</v>
       </c>
       <c r="K253" t="n">
-        <v>-3.030303030303076</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L253" t="n">
         <v>30.55</v>
@@ -13182,7 +13204,7 @@
         <v>69.60000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>3.225806451612955</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L254" t="n">
         <v>30.52</v>
@@ -13233,7 +13255,7 @@
         <v>69.90000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>3.225806451612955</v>
+        <v>-7.692307692307546</v>
       </c>
       <c r="L255" t="n">
         <v>30.50000000000001</v>
@@ -13284,7 +13306,7 @@
         <v>70.10000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>10.34482758620678</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L256" t="n">
         <v>30.47000000000001</v>
@@ -13335,7 +13357,7 @@
         <v>70.20000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>6.666666666666643</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L257" t="n">
         <v>30.43000000000001</v>
@@ -13386,7 +13408,7 @@
         <v>70.30000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>6.666666666666643</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L258" t="n">
         <v>30.41</v>
@@ -13437,7 +13459,7 @@
         <v>70.30000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>-3.703703703703753</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L259" t="n">
         <v>30.39</v>
@@ -13539,7 +13561,7 @@
         <v>70.70000000000002</v>
       </c>
       <c r="K261" t="n">
-        <v>7.142857142857088</v>
+        <v>12.5</v>
       </c>
       <c r="L261" t="n">
         <v>30.36999999999999</v>
@@ -13590,7 +13612,7 @@
         <v>70.70000000000002</v>
       </c>
       <c r="K262" t="n">
-        <v>-4.000000000000034</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L262" t="n">
         <v>30.38999999999999</v>
@@ -13641,7 +13663,7 @@
         <v>70.80000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>-4.000000000000057</v>
+        <v>16.66666666666677</v>
       </c>
       <c r="L263" t="n">
         <v>30.38999999999999</v>
@@ -13692,7 +13714,7 @@
         <v>70.80000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>-4.000000000000057</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L264" t="n">
         <v>30.40999999999999</v>
@@ -13743,7 +13765,7 @@
         <v>71.00000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>-4.000000000000057</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L265" t="n">
         <v>30.41999999999999</v>
@@ -13794,7 +13816,7 @@
         <v>71.20000000000002</v>
       </c>
       <c r="K266" t="n">
-        <v>-7.692307692307682</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L266" t="n">
         <v>30.42999999999999</v>
@@ -13845,7 +13867,7 @@
         <v>71.20000000000002</v>
       </c>
       <c r="K267" t="n">
-        <v>-7.692307692307682</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L267" t="n">
         <v>30.44999999999999</v>
@@ -13896,7 +13918,7 @@
         <v>71.40000000000002</v>
       </c>
       <c r="K268" t="n">
-        <v>-11.11111111111112</v>
+        <v>-9.090909090908825</v>
       </c>
       <c r="L268" t="n">
         <v>30.43999999999999</v>
@@ -13947,7 +13969,7 @@
         <v>71.40000000000002</v>
       </c>
       <c r="K269" t="n">
-        <v>-11.11111111111112</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L269" t="n">
         <v>30.43</v>
@@ -13998,7 +14020,7 @@
         <v>71.40000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>-11.11111111111112</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L270" t="n">
         <v>30.44</v>
@@ -14049,7 +14071,7 @@
         <v>71.60000000000002</v>
       </c>
       <c r="K271" t="n">
-        <v>-3.999999999999915</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L271" t="n">
         <v>30.41</v>
@@ -14100,7 +14122,7 @@
         <v>71.60000000000002</v>
       </c>
       <c r="K272" t="n">
-        <v>-3.999999999999915</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L272" t="n">
         <v>30.38000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>71.80000000000003</v>
       </c>
       <c r="K273" t="n">
-        <v>-8.333333333333284</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L273" t="n">
         <v>30.36000000000001</v>
@@ -14202,7 +14224,7 @@
         <v>72.00000000000003</v>
       </c>
       <c r="K274" t="n">
-        <v>-8.333333333333284</v>
+        <v>-59.99999999999893</v>
       </c>
       <c r="L274" t="n">
         <v>30.32000000000001</v>
@@ -14253,7 +14275,7 @@
         <v>72.10000000000002</v>
       </c>
       <c r="K275" t="n">
-        <v>-27.27272727272731</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L275" t="n">
         <v>30.25000000000001</v>
@@ -14304,7 +14326,7 @@
         <v>72.30000000000003</v>
       </c>
       <c r="K276" t="n">
-        <v>-9.090909090909047</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L276" t="n">
         <v>30.22000000000001</v>
@@ -14355,7 +14377,7 @@
         <v>72.50000000000003</v>
       </c>
       <c r="K277" t="n">
-        <v>-13.04347826086953</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L277" t="n">
         <v>30.17000000000001</v>
@@ -14406,7 +14428,7 @@
         <v>73.00000000000003</v>
       </c>
       <c r="K278" t="n">
-        <v>3.703703703703733</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L278" t="n">
         <v>30.19000000000001</v>
@@ -14457,7 +14479,7 @@
         <v>73.30000000000003</v>
       </c>
       <c r="K279" t="n">
-        <v>-6.666666666666611</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L279" t="n">
         <v>30.18000000000001</v>
@@ -14508,7 +14530,7 @@
         <v>73.70000000000003</v>
       </c>
       <c r="K280" t="n">
-        <v>12.5</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L280" t="n">
         <v>30.21000000000001</v>
@@ -14559,7 +14581,7 @@
         <v>74.20000000000003</v>
       </c>
       <c r="K281" t="n">
-        <v>-8.571428571428456</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>30.21000000000001</v>
@@ -14610,7 +14632,7 @@
         <v>74.20000000000003</v>
       </c>
       <c r="K282" t="n">
-        <v>-8.571428571428456</v>
+        <v>-8.333333333333284</v>
       </c>
       <c r="L282" t="n">
         <v>30.21000000000001</v>
@@ -14661,7 +14683,7 @@
         <v>74.50000000000003</v>
       </c>
       <c r="K283" t="n">
-        <v>-18.91891891891881</v>
+        <v>-12.00000000000003</v>
       </c>
       <c r="L283" t="n">
         <v>30.16000000000001</v>
@@ -14712,7 +14734,7 @@
         <v>74.50000000000003</v>
       </c>
       <c r="K284" t="n">
-        <v>-18.91891891891881</v>
+        <v>-8.333333333333284</v>
       </c>
       <c r="L284" t="n">
         <v>30.13000000000001</v>
@@ -14763,7 +14785,7 @@
         <v>74.70000000000003</v>
       </c>
       <c r="K285" t="n">
-        <v>-18.91891891891881</v>
+        <v>-8.333333333333284</v>
       </c>
       <c r="L285" t="n">
         <v>30.13000000000001</v>
@@ -14814,7 +14836,7 @@
         <v>74.90000000000003</v>
       </c>
       <c r="K286" t="n">
-        <v>-18.91891891891881</v>
+        <v>-8.333333333333284</v>
       </c>
       <c r="L286" t="n">
         <v>30.09000000000001</v>
@@ -14865,7 +14887,7 @@
         <v>74.90000000000003</v>
       </c>
       <c r="K287" t="n">
-        <v>-18.91891891891881</v>
+        <v>-36.84210526315775</v>
       </c>
       <c r="L287" t="n">
         <v>30.07000000000001</v>
@@ -14916,7 +14938,7 @@
         <v>74.90000000000003</v>
       </c>
       <c r="K288" t="n">
-        <v>-14.28571428571423</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L288" t="n">
         <v>30.00000000000001</v>
@@ -14967,7 +14989,7 @@
         <v>75.00000000000003</v>
       </c>
       <c r="K289" t="n">
-        <v>-16.66666666666666</v>
+        <v>-69.23076923076955</v>
       </c>
       <c r="L289" t="n">
         <v>29.95000000000001</v>
@@ -15018,7 +15040,7 @@
         <v>75.00000000000003</v>
       </c>
       <c r="K290" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L290" t="n">
         <v>29.86000000000001</v>
@@ -15069,7 +15091,7 @@
         <v>75.10000000000002</v>
       </c>
       <c r="K291" t="n">
-        <v>-8.571428571428592</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L291" t="n">
         <v>29.83000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>75.40000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L292" t="n">
         <v>29.83000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>75.60000000000002</v>
       </c>
       <c r="K293" t="n">
-        <v>-10.52631578947375</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L293" t="n">
         <v>29.84</v>
@@ -15222,7 +15244,7 @@
         <v>75.80000000000003</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L294" t="n">
         <v>29.87</v>
@@ -15273,7 +15295,7 @@
         <v>76.00000000000003</v>
       </c>
       <c r="K295" t="n">
-        <v>7.6923076923077</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L295" t="n">
         <v>29.90000000000001</v>
@@ -15324,7 +15346,7 @@
         <v>76.30000000000003</v>
       </c>
       <c r="K296" t="n">
-        <v>-4.999999999999982</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L296" t="n">
         <v>29.92000000000001</v>
@@ -15375,7 +15397,7 @@
         <v>76.40000000000003</v>
       </c>
       <c r="K297" t="n">
-        <v>2.564102564102597</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L297" t="n">
         <v>29.95000000000001</v>
@@ -15426,7 +15448,7 @@
         <v>76.60000000000004</v>
       </c>
       <c r="K298" t="n">
-        <v>-16.66666666666666</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L298" t="n">
         <v>29.96</v>
@@ -15477,7 +15499,7 @@
         <v>76.60000000000004</v>
       </c>
       <c r="K299" t="n">
-        <v>-9.090909090909081</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L299" t="n">
         <v>29.98</v>
@@ -15528,7 +15550,7 @@
         <v>76.90000000000003</v>
       </c>
       <c r="K300" t="n">
-        <v>-12.50000000000006</v>
+        <v>22.222222222222</v>
       </c>
       <c r="L300" t="n">
         <v>30.03</v>
@@ -15579,7 +15601,7 @@
         <v>77.30000000000004</v>
       </c>
       <c r="K301" t="n">
-        <v>-9.677419354838706</v>
+        <v>-15.7894736842104</v>
       </c>
       <c r="L301" t="n">
         <v>30.03</v>
@@ -15630,7 +15652,7 @@
         <v>77.30000000000004</v>
       </c>
       <c r="K302" t="n">
-        <v>-9.677419354838706</v>
+        <v>-5.882352941176286</v>
       </c>
       <c r="L302" t="n">
         <v>30</v>
@@ -15681,7 +15703,7 @@
         <v>77.30000000000004</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L303" t="n">
         <v>29.99</v>
@@ -15732,7 +15754,7 @@
         <v>77.40000000000003</v>
       </c>
       <c r="K304" t="n">
-        <v>-3.448275862069008</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L304" t="n">
         <v>29.95</v>
@@ -15783,7 +15805,7 @@
         <v>77.40000000000003</v>
       </c>
       <c r="K305" t="n">
-        <v>-11.11111111111112</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L305" t="n">
         <v>29.89</v>
@@ -15834,7 +15856,7 @@
         <v>77.40000000000003</v>
       </c>
       <c r="K306" t="n">
-        <v>-4.000000000000057</v>
+        <v>-40.00000000000021</v>
       </c>
       <c r="L306" t="n">
         <v>29.86</v>
@@ -15885,7 +15907,7 @@
         <v>77.80000000000004</v>
       </c>
       <c r="K307" t="n">
-        <v>10.3448275862069</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L307" t="n">
         <v>29.86</v>
@@ -15936,7 +15958,7 @@
         <v>77.80000000000004</v>
       </c>
       <c r="K308" t="n">
-        <v>10.3448275862069</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L308" t="n">
         <v>29.88</v>
@@ -15987,7 +16009,7 @@
         <v>78.00000000000004</v>
       </c>
       <c r="K309" t="n">
-        <v>6.666666666666611</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L309" t="n">
         <v>29.88</v>
@@ -16038,7 +16060,7 @@
         <v>78.30000000000004</v>
       </c>
       <c r="K310" t="n">
-        <v>-3.030303030302955</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L310" t="n">
         <v>29.82</v>
@@ -16089,7 +16111,7 @@
         <v>78.40000000000003</v>
       </c>
       <c r="K311" t="n">
-        <v>-3.030303030303063</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L311" t="n">
         <v>29.81</v>
@@ -16140,7 +16162,7 @@
         <v>78.50000000000003</v>
       </c>
       <c r="K312" t="n">
-        <v>-16.12903225806447</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L312" t="n">
         <v>29.79</v>
@@ -16191,7 +16213,7 @@
         <v>79.00000000000003</v>
       </c>
       <c r="K313" t="n">
-        <v>5.882352941176544</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L313" t="n">
         <v>29.82</v>
@@ -16242,7 +16264,7 @@
         <v>79.20000000000003</v>
       </c>
       <c r="K314" t="n">
-        <v>-5.882352941176544</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L314" t="n">
         <v>29.84</v>
@@ -16293,7 +16315,7 @@
         <v>79.40000000000003</v>
       </c>
       <c r="K315" t="n">
-        <v>-5.88235294117644</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L315" t="n">
         <v>29.88000000000001</v>
@@ -16344,7 +16366,7 @@
         <v>79.90000000000003</v>
       </c>
       <c r="K316" t="n">
-        <v>-11.11111111111104</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L316" t="n">
         <v>29.87000000000001</v>
@@ -16395,7 +16417,7 @@
         <v>79.90000000000003</v>
       </c>
       <c r="K317" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L317" t="n">
         <v>29.82000000000001</v>
@@ -16446,7 +16468,7 @@
         <v>79.90000000000003</v>
       </c>
       <c r="K318" t="n">
-        <v>-9.090909090909012</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L318" t="n">
         <v>29.77000000000001</v>
@@ -16497,7 +16519,7 @@
         <v>79.90000000000003</v>
       </c>
       <c r="K319" t="n">
-        <v>-9.090909090909012</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>29.74000000000002</v>
@@ -16548,7 +16570,7 @@
         <v>79.90000000000003</v>
       </c>
       <c r="K320" t="n">
-        <v>-19.99999999999993</v>
+        <v>-6.666666666666525</v>
       </c>
       <c r="L320" t="n">
         <v>29.74000000000002</v>
@@ -16599,7 +16621,7 @@
         <v>79.90000000000003</v>
       </c>
       <c r="K321" t="n">
-        <v>-7.692307692307682</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>29.73000000000002</v>
@@ -16650,7 +16672,7 @@
         <v>80.00000000000003</v>
       </c>
       <c r="K322" t="n">
-        <v>-11.11111111111118</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L322" t="n">
         <v>29.72000000000002</v>
@@ -16701,7 +16723,7 @@
         <v>80.00000000000003</v>
       </c>
       <c r="K323" t="n">
-        <v>-11.11111111111118</v>
+        <v>-50</v>
       </c>
       <c r="L323" t="n">
         <v>29.66000000000001</v>
@@ -16752,7 +16774,7 @@
         <v>80.00000000000003</v>
       </c>
       <c r="K324" t="n">
-        <v>-7.692307692307682</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L324" t="n">
         <v>29.62000000000002</v>
@@ -16803,7 +16825,7 @@
         <v>80.00000000000003</v>
       </c>
       <c r="K325" t="n">
-        <v>-7.692307692307682</v>
+        <v>-100.0000000000071</v>
       </c>
       <c r="L325" t="n">
         <v>29.56000000000001</v>
@@ -16854,7 +16876,7 @@
         <v>80.00000000000003</v>
       </c>
       <c r="K326" t="n">
-        <v>-7.692307692307682</v>
+        <v>-100.0000000000071</v>
       </c>
       <c r="L326" t="n">
         <v>29.55000000000001</v>
@@ -16905,7 +16927,7 @@
         <v>80.00000000000003</v>
       </c>
       <c r="K327" t="n">
-        <v>-27.27272727272748</v>
+        <v>-100.0000000000071</v>
       </c>
       <c r="L327" t="n">
         <v>29.54000000000001</v>
@@ -16956,7 +16978,7 @@
         <v>80.00000000000003</v>
       </c>
       <c r="K328" t="n">
-        <v>-27.27272727272748</v>
+        <v>-100.0000000000071</v>
       </c>
       <c r="L328" t="n">
         <v>29.53000000000001</v>
@@ -17007,7 +17029,7 @@
         <v>80.00000000000003</v>
       </c>
       <c r="K329" t="n">
-        <v>-20.00000000000007</v>
+        <v>-100.0000000000071</v>
       </c>
       <c r="L329" t="n">
         <v>29.52</v>
@@ -17058,7 +17080,7 @@
         <v>80.20000000000003</v>
       </c>
       <c r="K330" t="n">
-        <v>5.263157894736754</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L330" t="n">
         <v>29.53</v>
@@ -17109,7 +17131,7 @@
         <v>80.40000000000003</v>
       </c>
       <c r="K331" t="n">
-        <v>-9.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>29.52</v>
@@ -17160,7 +17182,7 @@
         <v>81.00000000000003</v>
       </c>
       <c r="K332" t="n">
-        <v>20</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L332" t="n">
         <v>29.58</v>
@@ -17211,7 +17233,7 @@
         <v>81.50000000000003</v>
       </c>
       <c r="K333" t="n">
-        <v>-20</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L333" t="n">
         <v>29.59</v>
@@ -17262,7 +17284,7 @@
         <v>81.90000000000003</v>
       </c>
       <c r="K334" t="n">
-        <v>3.703703703703753</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L334" t="n">
         <v>29.64</v>
@@ -17313,7 +17335,7 @@
         <v>82.50000000000003</v>
       </c>
       <c r="K335" t="n">
-        <v>-22.58064516129046</v>
+        <v>-4.000000000000057</v>
       </c>
       <c r="L335" t="n">
         <v>29.63</v>
@@ -17364,7 +17386,7 @@
         <v>82.50000000000003</v>
       </c>
       <c r="K336" t="n">
-        <v>-7.692307692307819</v>
+        <v>-4.000000000000057</v>
       </c>
       <c r="L336" t="n">
         <v>29.62</v>
@@ -17415,7 +17437,7 @@
         <v>82.60000000000002</v>
       </c>
       <c r="K337" t="n">
-        <v>-3.703703703703772</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>29.62</v>
@@ -17466,7 +17488,7 @@
         <v>82.70000000000002</v>
       </c>
       <c r="K338" t="n">
-        <v>-7.142857142857288</v>
+        <v>-3.703703703703772</v>
       </c>
       <c r="L338" t="n">
         <v>29.61</v>
@@ -17517,7 +17539,7 @@
         <v>82.70000000000002</v>
       </c>
       <c r="K339" t="n">
-        <v>-7.142857142857288</v>
+        <v>-12.0000000000001</v>
       </c>
       <c r="L339" t="n">
         <v>29.59999999999999</v>
@@ -17568,7 +17590,7 @@
         <v>82.80000000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>-3.448275862069042</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>29.57999999999999</v>
@@ -17619,7 +17641,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>-6.666666666666825</v>
+        <v>-36.84210526315849</v>
       </c>
       <c r="L341" t="n">
         <v>29.56999999999999</v>
@@ -17670,7 +17692,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>-3.448275862069042</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L342" t="n">
         <v>29.49999999999999</v>
@@ -17721,7 +17743,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>-3.448275862069042</v>
+        <v>-60.00000000000185</v>
       </c>
       <c r="L343" t="n">
         <v>29.47999999999998</v>
@@ -17772,7 +17794,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>-3.448275862069042</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>29.41999999999998</v>
@@ -17823,7 +17845,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>-3.448275862069042</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>29.41999999999998</v>
@@ -17874,7 +17896,7 @@
         <v>83.10000000000001</v>
       </c>
       <c r="K346" t="n">
-        <v>-9.677419354838793</v>
+        <v>-60.00000000000185</v>
       </c>
       <c r="L346" t="n">
         <v>29.39999999999998</v>
@@ -17925,7 +17947,7 @@
         <v>83.5</v>
       </c>
       <c r="K347" t="n">
-        <v>-20.00000000000014</v>
+        <v>-75.00000000000134</v>
       </c>
       <c r="L347" t="n">
         <v>29.32999999999998</v>
@@ -17976,7 +17998,7 @@
         <v>83.7</v>
       </c>
       <c r="K348" t="n">
-        <v>-24.32432432432445</v>
+        <v>-80.00000000000085</v>
       </c>
       <c r="L348" t="n">
         <v>29.24999999999999</v>
@@ -18027,7 +18049,7 @@
         <v>83.7</v>
       </c>
       <c r="K349" t="n">
-        <v>-24.32432432432445</v>
+        <v>-100.0000000000008</v>
       </c>
       <c r="L349" t="n">
         <v>29.16999999999999</v>
@@ -18078,7 +18100,7 @@
         <v>84</v>
       </c>
       <c r="K350" t="n">
-        <v>-21.05263157894756</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L350" t="n">
         <v>29.10999999999999</v>
@@ -18129,7 +18151,7 @@
         <v>84.8</v>
       </c>
       <c r="K351" t="n">
-        <v>4.545454545454568</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L351" t="n">
         <v>29.13999999999999</v>
@@ -18180,7 +18202,7 @@
         <v>85.69999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>-27.65957446808536</v>
+        <v>-21.42857142857148</v>
       </c>
       <c r="L352" t="n">
         <v>29.07999999999999</v>
@@ -18231,7 +18253,7 @@
         <v>85.99999999999999</v>
       </c>
       <c r="K353" t="n">
-        <v>-11.11111111111122</v>
+        <v>-9.67741935483868</v>
       </c>
       <c r="L353" t="n">
         <v>29.05</v>
@@ -18282,7 +18304,7 @@
         <v>86.29999999999998</v>
       </c>
       <c r="K354" t="n">
-        <v>-13.63636363636383</v>
+        <v>0</v>
       </c>
       <c r="L354" t="n">
         <v>29.05</v>
@@ -18333,7 +18355,7 @@
         <v>86.49999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>-5.000000000000036</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>29.03</v>
@@ -18384,7 +18406,7 @@
         <v>86.69999999999999</v>
       </c>
       <c r="K356" t="n">
-        <v>-9.523809523809581</v>
+        <v>6.25</v>
       </c>
       <c r="L356" t="n">
         <v>29.01</v>
@@ -18435,7 +18457,7 @@
         <v>86.89999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>-6.976744186046579</v>
+        <v>18.75</v>
       </c>
       <c r="L357" t="n">
         <v>29.05</v>
@@ -18486,7 +18508,7 @@
         <v>86.89999999999999</v>
       </c>
       <c r="K358" t="n">
-        <v>-4.761904761904774</v>
+        <v>18.75</v>
       </c>
       <c r="L358" t="n">
         <v>29.11</v>
@@ -18537,7 +18559,7 @@
         <v>87.3</v>
       </c>
       <c r="K359" t="n">
-        <v>4.347826086956602</v>
+        <v>21.21212121212131</v>
       </c>
       <c r="L359" t="n">
         <v>29.21</v>
@@ -18588,7 +18610,7 @@
         <v>87.7</v>
       </c>
       <c r="K360" t="n">
-        <v>-6.122448979591861</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L360" t="n">
         <v>29.24</v>
@@ -18639,7 +18661,7 @@
         <v>87.7</v>
       </c>
       <c r="K361" t="n">
-        <v>-4.166666666666655</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L361" t="n">
         <v>29.19</v>
@@ -18690,7 +18712,7 @@
         <v>87.80000000000001</v>
       </c>
       <c r="K362" t="n">
-        <v>-2.040816326530566</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L362" t="n">
         <v>29.24</v>
@@ -18741,7 +18763,7 @@
         <v>87.80000000000001</v>
       </c>
       <c r="K363" t="n">
-        <v>-2.040816326530566</v>
+        <v>-6.666666666666399</v>
       </c>
       <c r="L363" t="n">
         <v>29.26</v>
@@ -18792,7 +18814,7 @@
         <v>88.00000000000001</v>
       </c>
       <c r="K364" t="n">
-        <v>1.960784313725515</v>
+        <v>19.99999999999967</v>
       </c>
       <c r="L364" t="n">
         <v>29.27</v>
@@ -18843,7 +18865,7 @@
         <v>88.10000000000002</v>
       </c>
       <c r="K365" t="n">
-        <v>0</v>
+        <v>28.57142857142778</v>
       </c>
       <c r="L365" t="n">
         <v>29.29</v>
@@ -18894,7 +18916,7 @@
         <v>88.30000000000003</v>
       </c>
       <c r="K366" t="n">
-        <v>7.692307692307708</v>
+        <v>28.57142857142803</v>
       </c>
       <c r="L366" t="n">
         <v>29.35</v>
@@ -18945,7 +18967,7 @@
         <v>88.50000000000003</v>
       </c>
       <c r="K367" t="n">
-        <v>11.99999999999989</v>
+        <v>12.49999999999967</v>
       </c>
       <c r="L367" t="n">
         <v>29.37</v>
@@ -19000,7 +19022,7 @@
         <v>88.50000000000003</v>
       </c>
       <c r="K368" t="n">
-        <v>16.66666666666652</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L368" t="n">
         <v>29.39</v>
@@ -19059,7 +19081,7 @@
         <v>88.60000000000002</v>
       </c>
       <c r="K369" t="n">
-        <v>18.36734693877541</v>
+        <v>33.33333333333267</v>
       </c>
       <c r="L369" t="n">
         <v>29.38</v>
@@ -19118,7 +19140,7 @@
         <v>88.80000000000003</v>
       </c>
       <c r="K370" t="n">
-        <v>8.333333333333332</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L370" t="n">
         <v>29.39</v>
@@ -19175,7 +19197,7 @@
         <v>89.10000000000002</v>
       </c>
       <c r="K371" t="n">
-        <v>-2.325581395348774</v>
+        <v>23.07692307692293</v>
       </c>
       <c r="L371" t="n">
         <v>29.43</v>
@@ -19234,7 +19256,7 @@
         <v>89.30000000000003</v>
       </c>
       <c r="K372" t="n">
-        <v>16.66666666666644</v>
+        <v>6.666666666666461</v>
       </c>
       <c r="L372" t="n">
         <v>29.44</v>
@@ -19295,7 +19317,7 @@
         <v>89.50000000000003</v>
       </c>
       <c r="K373" t="n">
-        <v>14.28571428571411</v>
+        <v>6.666666666666698</v>
       </c>
       <c r="L373" t="n">
         <v>29.47</v>
@@ -19356,7 +19378,7 @@
         <v>89.60000000000002</v>
       </c>
       <c r="K374" t="n">
-        <v>3.030303030303037</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L374" t="n">
         <v>29.47</v>
@@ -19417,7 +19439,7 @@
         <v>89.70000000000002</v>
       </c>
       <c r="K375" t="n">
-        <v>6.249999999999917</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L375" t="n">
         <v>29.47</v>
@@ -19478,7 +19500,7 @@
         <v>89.80000000000001</v>
       </c>
       <c r="K376" t="n">
-        <v>9.677419354838662</v>
+        <v>-7.692307692307629</v>
       </c>
       <c r="L376" t="n">
         <v>29.44</v>
@@ -19539,7 +19561,7 @@
         <v>89.90000000000001</v>
       </c>
       <c r="K377" t="n">
-        <v>6.666666666666611</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>29.44</v>
@@ -19600,7 +19622,7 @@
         <v>90</v>
       </c>
       <c r="K378" t="n">
-        <v>9.677419354838706</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>29.45</v>
@@ -19661,7 +19683,7 @@
         <v>90.09999999999999</v>
       </c>
       <c r="K379" t="n">
-        <v>-7.142857142857252</v>
+        <v>7.692307692307714</v>
       </c>
       <c r="L379" t="n">
         <v>29.44</v>
@@ -19722,7 +19744,7 @@
         <v>90.39999999999999</v>
       </c>
       <c r="K380" t="n">
-        <v>18.51851851851859</v>
+        <v>7.692307692307714</v>
       </c>
       <c r="L380" t="n">
         <v>29.48</v>
@@ -19783,7 +19805,7 @@
         <v>90.89999999999999</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L381" t="n">
         <v>29.43999999999999</v>
@@ -19840,7 +19862,7 @@
         <v>91.5</v>
       </c>
       <c r="K382" t="n">
-        <v>13.51351351351356</v>
+        <v>10.00000000000011</v>
       </c>
       <c r="L382" t="n">
         <v>29.48</v>
@@ -19897,7 +19919,7 @@
         <v>91.7</v>
       </c>
       <c r="K383" t="n">
-        <v>17.94871794871797</v>
+        <v>23.80952380952404</v>
       </c>
       <c r="L383" t="n">
         <v>29.51999999999999</v>
@@ -19954,7 +19976,7 @@
         <v>92.5</v>
       </c>
       <c r="K384" t="n">
-        <v>28.888888888889</v>
+        <v>50.00000000000038</v>
       </c>
       <c r="L384" t="n">
         <v>29.65</v>
@@ -20011,7 +20033,7 @@
         <v>93.7</v>
       </c>
       <c r="K385" t="n">
-        <v>3.571428571428635</v>
+        <v>7.692307692307727</v>
       </c>
       <c r="L385" t="n">
         <v>29.67</v>
@@ -20062,7 +20084,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="K386" t="n">
-        <v>3.571428571428571</v>
+        <v>10.00000000000005</v>
       </c>
       <c r="L386" t="n">
         <v>29.72</v>
@@ -20113,7 +20135,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="K387" t="n">
-        <v>7.407407407407478</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="L387" t="n">
         <v>29.76</v>
@@ -20164,7 +20186,7 @@
         <v>94.10000000000001</v>
       </c>
       <c r="K388" t="n">
-        <v>10.71428571428578</v>
+        <v>14.99999999999998</v>
       </c>
       <c r="L388" t="n">
         <v>29.81</v>
@@ -20215,7 +20237,7 @@
         <v>94.60000000000001</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>-4.761904761904725</v>
       </c>
       <c r="L389" t="n">
         <v>29.82</v>
@@ -20266,7 +20288,7 @@
         <v>94.80000000000001</v>
       </c>
       <c r="K390" t="n">
-        <v>6.666666666666658</v>
+        <v>12.82051282051276</v>
       </c>
       <c r="L390" t="n">
         <v>29.82</v>
@@ -20317,7 +20339,7 @@
         <v>94.80000000000001</v>
       </c>
       <c r="K391" t="n">
-        <v>1.754385964912247</v>
+        <v>-3.030303030303063</v>
       </c>
       <c r="L391" t="n">
         <v>29.87</v>
@@ -20368,7 +20390,7 @@
         <v>94.90000000000001</v>
       </c>
       <c r="K392" t="n">
-        <v>3.571428571428635</v>
+        <v>-12.49999999999994</v>
       </c>
       <c r="L392" t="n">
         <v>29.85</v>
@@ -20419,7 +20441,7 @@
         <v>95.2</v>
       </c>
       <c r="K393" t="n">
-        <v>5.263157894736816</v>
+        <v>-33.33333333333338</v>
       </c>
       <c r="L393" t="n">
         <v>29.84</v>
@@ -20470,7 +20492,7 @@
         <v>95.40000000000001</v>
       </c>
       <c r="K394" t="n">
-        <v>3.448275862068964</v>
+        <v>5.882352941176335</v>
       </c>
       <c r="L394" t="n">
         <v>29.73</v>
@@ -20521,7 +20543,7 @@
         <v>95.40000000000001</v>
       </c>
       <c r="K395" t="n">
-        <v>5.263157894736866</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L395" t="n">
         <v>29.74</v>
@@ -20572,7 +20594,7 @@
         <v>95.7</v>
       </c>
       <c r="K396" t="n">
-        <v>1.694915254237255</v>
+        <v>-22.22222222222238</v>
       </c>
       <c r="L396" t="n">
         <v>29.7</v>
@@ -20623,7 +20645,7 @@
         <v>95.90000000000001</v>
       </c>
       <c r="K397" t="n">
-        <v>3.333333333333381</v>
+        <v>-22.22222222222218</v>
       </c>
       <c r="L397" t="n">
         <v>29.68</v>
@@ -20725,7 +20747,7 @@
         <v>96.2</v>
       </c>
       <c r="K399" t="n">
-        <v>4.91803278688525</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>29.65</v>
@@ -20776,7 +20798,7 @@
         <v>96.5</v>
       </c>
       <c r="K400" t="n">
-        <v>-4.91803278688525</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L400" t="n">
         <v>29.61999999999999</v>
@@ -20827,7 +20849,7 @@
         <v>96.5</v>
       </c>
       <c r="K401" t="n">
-        <v>3.571428571428553</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L401" t="n">
         <v>29.58999999999999</v>
@@ -20878,7 +20900,7 @@
         <v>96.59999999999999</v>
       </c>
       <c r="K402" t="n">
-        <v>-5.882352941176491</v>
+        <v>-28.57142857142864</v>
       </c>
       <c r="L402" t="n">
         <v>29.57999999999999</v>
@@ -20929,7 +20951,7 @@
         <v>96.59999999999999</v>
       </c>
       <c r="K403" t="n">
-        <v>-10.20408163265308</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L403" t="n">
         <v>29.53999999999999</v>
@@ -20980,7 +21002,7 @@
         <v>96.69999999999999</v>
       </c>
       <c r="K404" t="n">
-        <v>-33.33333333333348</v>
+        <v>-23.07692307692343</v>
       </c>
       <c r="L404" t="n">
         <v>29.50999999999999</v>
@@ -21031,7 +21053,7 @@
         <v>96.89999999999999</v>
       </c>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L405" t="n">
         <v>29.49999999999999</v>
@@ -21082,7 +21104,7 @@
         <v>96.99999999999999</v>
       </c>
       <c r="K406" t="n">
-        <v>-3.22580645161297</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L406" t="n">
         <v>29.52999999999999</v>
@@ -21133,7 +21155,7 @@
         <v>97.29999999999998</v>
       </c>
       <c r="K407" t="n">
-        <v>-11.76470588235308</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L407" t="n">
         <v>29.50999999999999</v>
@@ -21184,7 +21206,7 @@
         <v>97.49999999999999</v>
       </c>
       <c r="K408" t="n">
-        <v>-11.76470588235298</v>
+        <v>-7.692307692307629</v>
       </c>
       <c r="L408" t="n">
         <v>29.51999999999999</v>
@@ -21235,7 +21257,7 @@
         <v>97.69999999999999</v>
       </c>
       <c r="K409" t="n">
-        <v>-3.22580645161297</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>29.48999999999999</v>
@@ -21286,7 +21308,7 @@
         <v>97.99999999999999</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L410" t="n">
         <v>29.51999999999999</v>
@@ -21337,7 +21359,7 @@
         <v>98.09999999999998</v>
       </c>
       <c r="K411" t="n">
-        <v>-3.030303030302994</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L411" t="n">
         <v>29.54</v>
@@ -21388,7 +21410,7 @@
         <v>98.29999999999998</v>
       </c>
       <c r="K412" t="n">
-        <v>5.88235294117649</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L412" t="n">
         <v>29.57</v>
@@ -21439,7 +21461,7 @@
         <v>98.39999999999998</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L413" t="n">
         <v>29.61</v>
@@ -21490,7 +21512,7 @@
         <v>98.79999999999998</v>
       </c>
       <c r="K414" t="n">
-        <v>-5.88235294117649</v>
+        <v>-5.26315789473694</v>
       </c>
       <c r="L414" t="n">
         <v>29.62</v>
@@ -21592,7 +21614,7 @@
         <v>99.19999999999999</v>
       </c>
       <c r="K416" t="n">
-        <v>2.85714285714291</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L416" t="n">
         <v>29.61</v>
@@ -21643,7 +21665,7 @@
         <v>99.49999999999999</v>
       </c>
       <c r="K417" t="n">
-        <v>5.555555555555566</v>
+        <v>9.999999999999964</v>
       </c>
       <c r="L417" t="n">
         <v>29.65</v>
@@ -21694,7 +21716,7 @@
         <v>99.49999999999999</v>
       </c>
       <c r="K418" t="n">
-        <v>8.571428571428626</v>
+        <v>22.22222222222238</v>
       </c>
       <c r="L418" t="n">
         <v>29.67</v>
@@ -21745,7 +21767,7 @@
         <v>99.49999999999999</v>
       </c>
       <c r="K419" t="n">
-        <v>3.030303030303089</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L419" t="n">
         <v>29.71</v>
@@ -21796,7 +21818,7 @@
         <v>99.79999999999998</v>
       </c>
       <c r="K420" t="n">
-        <v>3.030303030303089</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L420" t="n">
         <v>29.69</v>
@@ -21847,7 +21869,7 @@
         <v>99.79999999999998</v>
       </c>
       <c r="K421" t="n">
-        <v>3.030303030303089</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L421" t="n">
         <v>29.68</v>
@@ -21898,7 +21920,7 @@
         <v>100.1</v>
       </c>
       <c r="K422" t="n">
-        <v>8.571428571428626</v>
+        <v>-5.882352941176335</v>
       </c>
       <c r="L422" t="n">
         <v>29.68</v>
@@ -21949,7 +21971,7 @@
         <v>100.3</v>
       </c>
       <c r="K423" t="n">
-        <v>13.51351351351356</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L423" t="n">
         <v>29.69</v>
@@ -22000,7 +22022,7 @@
         <v>100.3</v>
       </c>
       <c r="K424" t="n">
-        <v>16.66666666666673</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L424" t="n">
         <v>29.74</v>
@@ -22051,7 +22073,7 @@
         <v>100.4</v>
       </c>
       <c r="K425" t="n">
-        <v>14.28571428571434</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L425" t="n">
         <v>29.78000000000001</v>
@@ -22102,7 +22124,7 @@
         <v>100.5</v>
       </c>
       <c r="K426" t="n">
-        <v>14.28571428571434</v>
+        <v>40.00000000000043</v>
       </c>
       <c r="L426" t="n">
         <v>29.85</v>
@@ -22153,7 +22175,7 @@
         <v>101.3</v>
       </c>
       <c r="K427" t="n">
-        <v>40.00000000000018</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L427" t="n">
         <v>29.97000000000001</v>
@@ -22204,7 +22226,7 @@
         <v>101.3</v>
       </c>
       <c r="K428" t="n">
-        <v>36.84210526315802</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L428" t="n">
         <v>30.09</v>
@@ -22255,7 +22277,7 @@
         <v>101.3</v>
       </c>
       <c r="K429" t="n">
-        <v>44.44444444444473</v>
+        <v>100.000000000001</v>
       </c>
       <c r="L429" t="n">
         <v>30.21</v>
@@ -22306,7 +22328,7 @@
         <v>101.4</v>
       </c>
       <c r="K430" t="n">
-        <v>41.17647058823546</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L430" t="n">
         <v>30.37</v>
@@ -22357,7 +22379,7 @@
         <v>101.5</v>
       </c>
       <c r="K431" t="n">
-        <v>41.17647058823535</v>
+        <v>85.71428571428619</v>
       </c>
       <c r="L431" t="n">
         <v>30.52</v>
@@ -22408,7 +22430,7 @@
         <v>101.6</v>
       </c>
       <c r="K432" t="n">
-        <v>33.33333333333344</v>
+        <v>69.23076923077002</v>
       </c>
       <c r="L432" t="n">
         <v>30.63</v>
@@ -22459,7 +22481,7 @@
         <v>101.7</v>
       </c>
       <c r="K433" t="n">
-        <v>33.33333333333355</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L433" t="n">
         <v>30.73</v>
@@ -22510,7 +22532,7 @@
         <v>101.8</v>
       </c>
       <c r="K434" t="n">
-        <v>53.33333333333389</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L434" t="n">
         <v>30.84</v>
@@ -22561,7 +22583,7 @@
         <v>101.8</v>
       </c>
       <c r="K435" t="n">
-        <v>50.00000000000063</v>
+        <v>69.23076923077031</v>
       </c>
       <c r="L435" t="n">
         <v>30.94</v>
@@ -22612,7 +22634,7 @@
         <v>102.2</v>
       </c>
       <c r="K436" t="n">
-        <v>66.6666666666673</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L436" t="n">
         <v>31.07</v>
@@ -22663,7 +22685,7 @@
         <v>102.7</v>
       </c>
       <c r="K437" t="n">
-        <v>68.75000000000054</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L437" t="n">
         <v>31.17000000000001</v>
@@ -22714,7 +22736,7 @@
         <v>102.7</v>
       </c>
       <c r="K438" t="n">
-        <v>68.75000000000054</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L438" t="n">
         <v>31.27</v>
@@ -22765,7 +22787,7 @@
         <v>103.1</v>
       </c>
       <c r="K439" t="n">
-        <v>50.0000000000003</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L439" t="n">
         <v>31.33000000000001</v>
@@ -22816,7 +22838,7 @@
         <v>103.2</v>
       </c>
       <c r="K440" t="n">
-        <v>58.82352941176509</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L440" t="n">
         <v>31.37</v>
@@ -22867,7 +22889,7 @@
         <v>103.2</v>
       </c>
       <c r="K441" t="n">
-        <v>58.82352941176509</v>
+        <v>37.50000000000022</v>
       </c>
       <c r="L441" t="n">
         <v>31.42000000000001</v>
@@ -22918,7 +22940,7 @@
         <v>103.4</v>
       </c>
       <c r="K442" t="n">
-        <v>45.45454545454569</v>
+        <v>17.64705882352942</v>
       </c>
       <c r="L442" t="n">
         <v>31.46000000000001</v>
@@ -22969,7 +22991,7 @@
         <v>103.5</v>
       </c>
       <c r="K443" t="n">
-        <v>43.75000000000031</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L443" t="n">
         <v>31.50000000000001</v>
@@ -23020,7 +23042,7 @@
         <v>103.5</v>
       </c>
       <c r="K444" t="n">
-        <v>43.75000000000031</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L444" t="n">
         <v>31.53</v>
@@ -23071,7 +23093,7 @@
         <v>103.6</v>
       </c>
       <c r="K445" t="n">
-        <v>43.75000000000011</v>
+        <v>0</v>
       </c>
       <c r="L445" t="n">
         <v>31.57</v>
@@ -23122,7 +23144,7 @@
         <v>103.7</v>
       </c>
       <c r="K446" t="n">
-        <v>43.75000000000022</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L446" t="n">
         <v>31.58</v>
@@ -23173,7 +23195,7 @@
         <v>104.1</v>
       </c>
       <c r="K447" t="n">
-        <v>35.71428571428575</v>
+        <v>0</v>
       </c>
       <c r="L447" t="n">
         <v>31.58</v>
@@ -23224,7 +23246,7 @@
         <v>104.3</v>
       </c>
       <c r="K448" t="n">
-        <v>26.66666666666669</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L448" t="n">
         <v>31.56</v>
@@ -23275,7 +23297,7 @@
         <v>104.4</v>
       </c>
       <c r="K449" t="n">
-        <v>29.03225806451614</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L449" t="n">
         <v>31.59</v>
@@ -23326,7 +23348,7 @@
         <v>105.7</v>
       </c>
       <c r="K450" t="n">
-        <v>48.83720930232581</v>
+        <v>68.00000000000011</v>
       </c>
       <c r="L450" t="n">
         <v>31.76</v>
@@ -23377,7 +23399,7 @@
         <v>105.7</v>
       </c>
       <c r="K451" t="n">
-        <v>52.38095238095259</v>
+        <v>82.60869565217411</v>
       </c>
       <c r="L451" t="n">
         <v>31.93</v>

--- a/BackTest/2019-10-06 BackTest DVP.xlsx
+++ b/BackTest/2019-10-06 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>130386.6230999998</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>124927.6577999998</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>124927.6577999998</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-124259.4617000002</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>29554.09789999985</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>29554.09789999985</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>145943.3820999998</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>145943.3820999998</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>88702.25739999984</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>103587.2727999998</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>3012.773999999845</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3012.773999999845</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4543.103100000155</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>208806.8230999998</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-17040.54910000018</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-17040.54910000018</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-16946.20947735867</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-33260.00087735867</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-211829.4066773587</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-196981.6038773587</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-230504.7688773587</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-167073.3488773587</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-132715.8868773587</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-132428.4571773587</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-139178.5844773586</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-343441.8847773586</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-494954.0452773586</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-494384.6407773586</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-484141.6264773586</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-623359.7674773587</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-622040.8132773587</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-622040.8132773587</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-622040.8132773587</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-621413.6997773587</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-693534.9240773587</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-643131.1153773585</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-643131.1153773585</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-727796.7843773585</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-727796.7843773585</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-727768.4137773585</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-743762.5237773585</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-743762.5237773585</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-701014.4886773585</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-708710.6122773585</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-708710.6122773585</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-708710.6122773585</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-361264.7355870851</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-362985.7081870851</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-362956.090487085</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-409994.0538870851</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-446237.2437870851</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-625540.2290870851</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-625530.2290870851</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-625957.1050870852</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-625957.1050870852</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-617361.8805870852</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-617117.9093870851</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-621113.5925870851</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-701661.4624870851</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-701661.4624870851</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-701115.5443870851</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-728903.8840870851</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-728793.8840870851</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-728803.8840870851</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-728605.9531870851</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-728615.9531870851</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-688366.2151870851</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-712642.7410870851</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-710809.5420870851</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-710831.5420870851</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-724826.7158870851</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-724247.4398870851</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-724247.4398870851</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-724377.4398870851</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-724367.4398870851</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-724367.4398870851</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-846930.4916870851</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-846928.3716870851</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-672832.3090870851</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-672822.3090870851</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-672822.3090870851</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-673646.6815870851</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-708435.9813870852</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-946560.4252870851</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-946560.4252870851</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-946550.4252870851</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-950326.1451779369</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1017191.232477937</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1017181.232477937</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1204251.818777937</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1204241.818777937</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1542122.441974003</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1543698.285274003</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1538628.285274003</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1561285.499674003</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1561484.999674003</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1733677.519774003</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1728070.610574003</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1747856.045974003</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1747856.045974003</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1757373.045974003</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1757373.045974003</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1900474.045974003</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1900474.045974003</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1900234.045974003</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1900543.406974003</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11869,14 +11869,10 @@
         <v>-2062000.858820715</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J348" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
@@ -11906,14 +11902,12 @@
         <v>-2062000.858820715</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>29.7</v>
       </c>
-      <c r="J349" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -11950,9 +11944,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11986,14 +11978,10 @@
         <v>-2059386.414020715</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J351" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12030,9 +12018,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12069,9 +12055,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12108,9 +12092,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12147,9 +12129,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12186,9 +12166,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12225,9 +12203,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12264,9 +12240,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12303,9 +12277,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12342,9 +12314,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12378,14 +12348,10 @@
         <v>-2058916.632320715</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J361" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12422,9 +12388,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12461,9 +12425,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12500,9 +12462,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12539,9 +12499,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12578,9 +12536,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12617,9 +12573,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12656,9 +12610,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12695,9 +12647,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12734,9 +12684,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12773,9 +12721,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12809,12 +12755,12 @@
         <v>-2107123.511220715</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>29.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12851,9 +12797,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12890,9 +12834,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12929,9 +12871,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12968,9 +12908,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13007,9 +12945,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13046,9 +12982,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13085,9 +13019,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13124,9 +13056,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13163,9 +13093,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13202,9 +13130,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13238,14 +13164,10 @@
         <v>-2161320.857820715</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J383" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13282,9 +13204,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13321,9 +13241,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13360,9 +13278,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13399,9 +13315,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13438,9 +13352,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13477,9 +13389,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13516,9 +13426,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13555,9 +13463,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13591,14 +13497,10 @@
         <v>-2223337.700820715</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J392" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13632,14 +13534,10 @@
         <v>-2078933.750820715</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J393" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13676,9 +13574,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13715,9 +13611,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13754,9 +13648,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13793,9 +13685,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13832,9 +13722,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13868,14 +13756,10 @@
         <v>-2514290.586420715</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J399" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13912,9 +13796,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13951,9 +13833,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13990,9 +13870,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14029,9 +13907,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14068,9 +13944,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14107,9 +13981,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14146,9 +14018,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14185,9 +14055,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14221,14 +14089,10 @@
         <v>-2694858.995720714</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J408" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14262,14 +14126,12 @@
         <v>-2685070.743720714</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>28.6</v>
       </c>
-      <c r="J409" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14303,14 +14165,12 @@
         <v>-2612092.585720715</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>28.9</v>
       </c>
-      <c r="J410" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14344,12 +14204,12 @@
         <v>-2658426.167020715</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>29.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14383,14 +14243,12 @@
         <v>-2615277.858720715</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>28.8</v>
       </c>
-      <c r="J412" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14424,14 +14282,12 @@
         <v>-2584312.951520715</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>29.1</v>
       </c>
-      <c r="J413" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14465,14 +14321,12 @@
         <v>-2584322.951520715</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>29.4</v>
       </c>
-      <c r="J414" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14506,14 +14360,12 @@
         <v>-3036993.333420715</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>29.2</v>
       </c>
-      <c r="J415" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14547,14 +14399,10 @@
         <v>-3012372.705020715</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>29</v>
-      </c>
-      <c r="J416" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14591,9 +14439,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14630,9 +14476,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14669,9 +14513,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14708,9 +14550,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14747,9 +14587,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14783,12 +14621,12 @@
         <v>-3055782.145372067</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>29.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14822,12 +14660,12 @@
         <v>-2624666.409472066</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>29.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14861,12 +14699,12 @@
         <v>-2624676.409472066</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>29.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14903,9 +14741,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14942,9 +14778,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14981,9 +14815,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15020,9 +14852,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15059,9 +14889,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15095,12 +14923,12 @@
         <v>-2646725.860472066</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>29.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15134,14 +14962,12 @@
         <v>-2646745.860472066</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>29.6</v>
       </c>
-      <c r="J431" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15175,14 +15001,12 @@
         <v>-2638190.222972066</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>29.4</v>
       </c>
-      <c r="J432" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15216,14 +15040,12 @@
         <v>-2676100.527972066</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>29.6</v>
       </c>
-      <c r="J433" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15257,14 +15079,12 @@
         <v>-2685109.439535331</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>29.5</v>
       </c>
-      <c r="J434" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15298,12 +15118,12 @@
         <v>-2739298.681389753</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>29.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15337,12 +15157,12 @@
         <v>-2739214.681389753</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>29.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15376,12 +15196,12 @@
         <v>-2672853.596389753</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>29.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15415,12 +15235,12 @@
         <v>-2672863.596389753</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>29.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15457,9 +15277,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15496,9 +15314,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15535,9 +15351,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15574,9 +15388,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15613,9 +15425,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15652,9 +15462,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15691,9 +15499,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15730,9 +15536,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15769,9 +15573,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15808,9 +15610,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15847,9 +15647,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15886,9 +15684,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15925,9 +15721,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15964,9 +15758,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16003,9 +15795,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16042,9 +15832,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16081,9 +15869,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16117,14 +15903,10 @@
         <v>-2508437.172239921</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J456" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16158,14 +15940,10 @@
         <v>-2516612.952139921</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J457" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16199,14 +15977,10 @@
         <v>-2516544.952139921</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J458" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16240,14 +16014,10 @@
         <v>-2607574.068239921</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J459" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16281,14 +16051,10 @@
         <v>-2607574.068239921</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J460" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16325,9 +16091,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16364,9 +16128,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16400,14 +16162,10 @@
         <v>-2560647.180239921</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J463" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16444,9 +16202,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16480,14 +16236,10 @@
         <v>-2548625.427839921</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J465" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16524,9 +16276,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16563,9 +16313,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16602,9 +16350,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16641,9 +16387,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16680,9 +16424,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16719,9 +16461,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16758,9 +16498,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16797,9 +16535,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16836,9 +16572,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16875,9 +16609,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16914,9 +16646,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16953,9 +16683,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16992,9 +16720,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17031,9 +16757,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17070,9 +16794,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17109,9 +16831,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17148,9 +16868,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17187,9 +16905,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17226,9 +16942,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17262,14 +16976,10 @@
         <v>-2345285.765940585</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
-      </c>
-      <c r="I485" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J485" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17303,14 +17013,10 @@
         <v>-1946759.162239922</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J486" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17344,14 +17050,10 @@
         <v>-1946759.162239922</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="n">
-        <v>31</v>
-      </c>
-      <c r="J487" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17388,9 +17090,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17427,9 +17127,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17466,9 +17164,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17505,9 +17201,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17544,9 +17238,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17583,9 +17275,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17622,9 +17312,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17661,9 +17349,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17700,9 +17386,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17739,9 +17423,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17775,12 +17457,10 @@
         <v>-1515048.160967614</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17817,9 +17497,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17831,6 +17509,6 @@
       <c r="M499" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest DVP.xlsx
+++ b/BackTest/2019-10-06 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,7 +814,7 @@
         <v>-99727.31090000016</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-93910.33760000016</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-251509.5505000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-251509.5505000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-251723.0988000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-250085.5242000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-250085.5242000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-258629.2147000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-153495.5914000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-153495.5914000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-198714.3101000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-203075.8277000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-200584.8068000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-205509.2000000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-200437.9389000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-241037.4802000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-200843.2668000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-173010.5017000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-173010.5017000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-174173.4937000002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-200308.2400000002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-200308.2400000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-225500.3717000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-225163.9080000002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-225143.9080000002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-225143.9080000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>29554.09789999985</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>29554.09789999985</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>145943.3820999998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>145943.3820999998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>88702.25739999984</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>103587.2727999998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>3012.773999999845</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3012.773999999845</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4543.103100000155</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>208806.8230999998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-17040.54910000018</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-17040.54910000018</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-16946.20947735867</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-33260.00087735867</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-211829.4066773587</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-196981.6038773587</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-230504.7688773587</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-167073.3488773587</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-132715.8868773587</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-494954.0452773586</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-494384.6407773586</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-484141.6264773586</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-623359.7674773587</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-622040.8132773587</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-622040.8132773587</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-622040.8132773587</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-621413.6997773587</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-693534.9240773587</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-643131.1153773585</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-643131.1153773585</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-727796.7843773585</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-727796.7843773585</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-727768.4137773585</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-743762.5237773585</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-743762.5237773585</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-701014.4886773585</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-708710.6122773585</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-708710.6122773585</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-708710.6122773585</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-625540.2290870851</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-625530.2290870851</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-625957.1050870852</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-617361.8805870852</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-617117.9093870851</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-621113.5925870851</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-701661.4624870851</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-701661.4624870851</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-701115.5443870851</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-728903.8840870851</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-728793.8840870851</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-728803.8840870851</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-728605.9531870851</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-728615.9531870851</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-688366.2151870851</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-712642.7410870851</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-710809.5420870851</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-724826.7158870851</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-724247.4398870851</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-724377.4398870851</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-724367.4398870851</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-673646.6815870851</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-950420.1514870852</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-950326.1451779369</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-950326.1451779369</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1017191.232477937</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1017191.232477937</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1017181.232477937</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1204251.818777937</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1204241.818777937</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1204251.818777937</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1747856.045974003</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1757373.045974003</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11978,9 +11978,11 @@
         <v>-2059386.414020715</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12496,9 +12498,11 @@
         <v>-2069645.334420715</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -12533,9 +12537,11 @@
         <v>-2069635.334420715</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12755,11 +12761,9 @@
         <v>-2107123.511220715</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -12942,9 +12946,11 @@
         <v>-2157054.414220715</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -14089,9 +14095,11 @@
         <v>-2694858.995720714</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14321,11 +14329,9 @@
         <v>-2584322.951520715</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14360,11 +14366,9 @@
         <v>-3036993.333420715</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14621,11 +14625,9 @@
         <v>-3055782.145372067</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14660,11 +14662,9 @@
         <v>-2624666.409472066</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14699,11 +14699,9 @@
         <v>-2624676.409472066</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -14923,11 +14921,9 @@
         <v>-2646725.860472066</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -14962,11 +14958,9 @@
         <v>-2646745.860472066</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -15001,11 +14995,9 @@
         <v>-2638190.222972066</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15040,11 +15032,9 @@
         <v>-2676100.527972066</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15079,11 +15069,9 @@
         <v>-2685109.439535331</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15118,11 +15106,9 @@
         <v>-2739298.681389753</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15157,11 +15143,9 @@
         <v>-2739214.681389753</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15196,11 +15180,9 @@
         <v>-2672853.596389753</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15235,11 +15217,9 @@
         <v>-2672863.596389753</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -17087,18 +17067,16 @@
         <v>-1946759.162239922</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L488" t="n">
-        <v>1</v>
-      </c>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="inlineStr"/>
     </row>
     <row r="489">
@@ -17128,11 +17106,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17165,11 +17139,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17202,11 +17172,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17239,11 +17205,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17276,11 +17238,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17313,11 +17271,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17350,11 +17304,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17383,15 +17333,11 @@
         <v>-1349578.470767614</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17420,15 +17366,11 @@
         <v>-1349578.470767614</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17457,15 +17399,11 @@
         <v>-1515048.160967614</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17494,21 +17432,17 @@
         <v>-1515820.446667613</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
       <c r="M499" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest DVP.xlsx
+++ b/BackTest/2019-10-06 BackTest DVP.xlsx
@@ -814,7 +814,7 @@
         <v>-99727.31090000016</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-93910.33760000016</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-251509.5505000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-251509.5505000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-251723.0988000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-250085.5242000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-250085.5242000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-258629.2147000002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-153495.5914000002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-153495.5914000002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-198714.3101000002</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-203075.8277000002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-200584.8068000002</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-205509.2000000002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-200437.9389000002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-241037.4802000002</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-200843.2668000002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-173010.5017000002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-173010.5017000002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-174173.4937000002</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-200308.2400000002</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-200308.2400000002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-225500.3717000002</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-225163.9080000002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-225143.9080000002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-225143.9080000002</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>130386.6230999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>124927.6577999998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>124927.6577999998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>145943.3820999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>88702.25739999984</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>103587.2727999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>3012.773999999845</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3012.773999999845</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4543.103100000155</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-132428.4571773587</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-139178.5844773586</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-343441.8847773586</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-356083.6147773587</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-361264.7355870851</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-362985.7081870851</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-362956.090487085</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-409994.0538870851</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-451248.2437870851</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-446237.2437870851</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-581874.7647870851</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-625540.2290870851</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-625957.1050870852</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-710831.5420870851</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-673646.6815870851</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-950420.1514870852</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-950326.1451779369</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-950326.1451779369</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1017191.232477937</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1017191.232477937</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1017181.232477937</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1204251.818777937</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1204241.818777937</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1204251.818777937</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1747856.045974003</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1757373.045974003</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11902,2327 +11902,2085 @@
         <v>-2062000.858820715</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C350" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D350" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E350" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F350" t="n">
+        <v>2604.4448</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-2059396.414020715</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C351" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D351" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E351" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F351" t="n">
+        <v>10</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-2059386.414020715</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C352" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D352" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E352" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F352" t="n">
+        <v>10</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-2059396.414020715</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C353" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D353" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E353" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F353" t="n">
+        <v>110</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-2059286.414020715</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C354" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D354" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E354" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F354" t="n">
+        <v>10</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-2059276.414020715</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>30</v>
+      </c>
+      <c r="C355" t="n">
+        <v>30</v>
+      </c>
+      <c r="D355" t="n">
+        <v>30</v>
+      </c>
+      <c r="E355" t="n">
+        <v>30</v>
+      </c>
+      <c r="F355" t="n">
+        <v>10</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-2059286.414020715</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C356" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D356" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E356" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F356" t="n">
+        <v>364.7817</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-2058921.632320715</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C357" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D357" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E357" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F357" t="n">
+        <v>10</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-2058931.632320715</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C358" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D358" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E358" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F358" t="n">
+        <v>10010</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-2058931.632320715</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C359" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D359" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E359" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F359" t="n">
+        <v>25</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-2058906.632320715</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C360" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D360" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E360" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F360" t="n">
+        <v>10</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-2058916.632320715</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C361" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D361" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E361" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F361" t="n">
+        <v>46397.3647</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-2058916.632320715</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C362" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D362" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E362" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F362" t="n">
+        <v>11206.0432</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-2058916.632320715</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
         <v>29.7</v>
       </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
+      <c r="C363" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D363" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E363" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F363" t="n">
+        <v>10728.7021</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-2069645.334420715</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C364" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D364" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E364" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F364" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-2069645.334420715</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C365" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D365" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E365" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F365" t="n">
+        <v>379.945</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-2069645.334420715</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C366" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D366" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E366" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F366" t="n">
+        <v>10</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-2069635.334420715</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C367" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D367" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E367" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F367" t="n">
+        <v>197.8073</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-2069635.334420715</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C368" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D368" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E368" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F368" t="n">
+        <v>10.5194</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-2069645.853820716</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C369" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D369" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E369" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F369" t="n">
+        <v>43531.823</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-2113177.676820715</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C370" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D370" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E370" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F370" t="n">
+        <v>5699.7979</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-2107477.878920715</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C371" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D371" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E371" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F371" t="n">
+        <v>10</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-2107487.878920715</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>30</v>
+      </c>
+      <c r="C372" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D372" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E372" t="n">
+        <v>30</v>
+      </c>
+      <c r="F372" t="n">
+        <v>364.3677</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-2107123.511220715</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C373" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D373" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E373" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F373" t="n">
+        <v>5940.903</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-2113064.414220715</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C374" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D374" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E374" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F374" t="n">
+        <v>10</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-2113054.414220715</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C375" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D375" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E375" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F375" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-2157054.414220715</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C376" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D376" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E376" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F376" t="n">
+        <v>41383.1685</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-2157054.414220715</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C377" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D377" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E377" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F377" t="n">
+        <v>92707</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-2157054.414220715</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C378" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D378" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E378" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F378" t="n">
+        <v>276000</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-2157054.414220715</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C379" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D379" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E379" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F379" t="n">
+        <v>92000</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-2157054.414220715</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C380" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D380" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E380" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F380" t="n">
+        <v>92000</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-2157054.414220715</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C381" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D381" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E381" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F381" t="n">
+        <v>4266.4436</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-2161320.857820715</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C382" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D382" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E382" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F382" t="n">
+        <v>29290.6033</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-2161320.857820715</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C383" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D383" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E383" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F383" t="n">
+        <v>63000</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-2161320.857820715</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C384" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D384" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E384" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F384" t="n">
+        <v>127200</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-2161320.857820715</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C385" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D385" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E385" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F385" t="n">
+        <v>63000</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-2161320.857820715</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C386" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D386" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E386" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F386" t="n">
+        <v>127462</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-2161320.857820715</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C387" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D387" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E387" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F387" t="n">
+        <v>127472</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-2161320.857820715</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C388" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D388" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E388" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F388" t="n">
+        <v>63731</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-2161320.857820715</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C389" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D389" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E389" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F389" t="n">
+        <v>64738.7782</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-2096582.079620715</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C390" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D390" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E390" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F390" t="n">
+        <v>63223.5742</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-2159805.653820715</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C391" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D391" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E391" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F391" t="n">
+        <v>42467.953</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-2117337.700820715</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C392" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D392" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E392" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F392" t="n">
+        <v>106000</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-2223337.700820715</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C393" t="n">
+        <v>30</v>
+      </c>
+      <c r="D393" t="n">
+        <v>30</v>
+      </c>
+      <c r="E393" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F393" t="n">
+        <v>144403.95</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-2078933.750820715</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C394" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D394" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E394" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F394" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-2328933.750820715</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C395" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D395" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E395" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F395" t="n">
+        <v>258489.0937</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-2328933.750820715</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C396" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D396" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E396" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F396" t="n">
+        <v>526.7041</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-2328407.046720715</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C397" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D397" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E397" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F397" t="n">
+        <v>193978.5566</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-2522385.603320715</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C398" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D398" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E398" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F398" t="n">
+        <v>5124.3017</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-2522385.603320715</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C399" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D399" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E399" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F399" t="n">
+        <v>8095.0169</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-2514290.586420715</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C400" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D400" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E400" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F400" t="n">
+        <v>248.7323</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-2514539.318720715</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C401" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D401" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E401" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F401" t="n">
+        <v>271400</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-2514539.318720715</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C402" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D402" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E402" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F402" t="n">
+        <v>22613.3572</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-2514539.318720715</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C403" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D403" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E403" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F403" t="n">
+        <v>14370.4688</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-2514539.318720715</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C404" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D404" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E404" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F404" t="n">
+        <v>1029.0476</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-2514539.318720715</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C405" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D405" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E405" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F405" t="n">
+        <v>50466.5765</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-2565005.895220715</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C406" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D406" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E406" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F406" t="n">
+        <v>103579.7627</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-2668585.657920714</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C407" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D407" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E407" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F407" t="n">
+        <v>26273.3378</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-2694858.995720714</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C408" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D408" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E408" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F408" t="n">
+        <v>14671.1788</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-2694858.995720714</v>
+      </c>
+      <c r="H408" t="n">
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J408" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C409" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D409" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E409" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F409" t="n">
+        <v>9788.252</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-2685070.743720714</v>
+      </c>
+      <c r="H409" t="n">
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J409" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>29</v>
+      </c>
+      <c r="C410" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D410" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E410" t="n">
+        <v>29</v>
+      </c>
+      <c r="F410" t="n">
+        <v>72978.158</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-2612092.585720715</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J410" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C411" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D411" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E411" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F411" t="n">
+        <v>46333.5813</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-2658426.167020715</v>
+      </c>
+      <c r="H411" t="n">
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J411" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K411" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C350" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D350" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E350" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F350" t="n">
-        <v>2604.4448</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-2059396.414020715</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C351" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D351" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E351" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F351" t="n">
-        <v>10</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-2059386.414020715</v>
-      </c>
-      <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C352" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D352" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E352" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F352" t="n">
-        <v>10</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-2059396.414020715</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C353" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D353" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E353" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F353" t="n">
-        <v>110</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-2059286.414020715</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C354" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D354" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E354" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F354" t="n">
-        <v>10</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-2059276.414020715</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>30</v>
-      </c>
-      <c r="C355" t="n">
-        <v>30</v>
-      </c>
-      <c r="D355" t="n">
-        <v>30</v>
-      </c>
-      <c r="E355" t="n">
-        <v>30</v>
-      </c>
-      <c r="F355" t="n">
-        <v>10</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-2059286.414020715</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C356" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D356" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E356" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F356" t="n">
-        <v>364.7817</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-2058921.632320715</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C357" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D357" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E357" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F357" t="n">
-        <v>10</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-2058931.632320715</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C358" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D358" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E358" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F358" t="n">
-        <v>10010</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-2058931.632320715</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C359" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D359" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E359" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F359" t="n">
-        <v>25</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-2058906.632320715</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C360" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D360" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E360" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F360" t="n">
-        <v>10</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-2058916.632320715</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C361" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D361" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E361" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F361" t="n">
-        <v>46397.3647</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-2058916.632320715</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C362" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D362" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E362" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F362" t="n">
-        <v>11206.0432</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-2058916.632320715</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C363" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D363" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E363" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F363" t="n">
-        <v>10728.7021</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-2069645.334420715</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C364" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D364" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E364" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F364" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-2069645.334420715</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C365" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D365" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E365" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F365" t="n">
-        <v>379.945</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-2069645.334420715</v>
-      </c>
-      <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C366" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D366" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E366" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F366" t="n">
-        <v>10</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-2069635.334420715</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C367" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D367" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E367" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F367" t="n">
-        <v>197.8073</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-2069635.334420715</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C368" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D368" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E368" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F368" t="n">
-        <v>10.5194</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-2069645.853820716</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C369" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D369" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E369" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F369" t="n">
-        <v>43531.823</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-2113177.676820715</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C370" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D370" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E370" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F370" t="n">
-        <v>5699.7979</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-2107477.878920715</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C371" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D371" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E371" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F371" t="n">
-        <v>10</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-2107487.878920715</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>30</v>
-      </c>
-      <c r="C372" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D372" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E372" t="n">
-        <v>30</v>
-      </c>
-      <c r="F372" t="n">
-        <v>364.3677</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-2107123.511220715</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C373" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D373" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E373" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F373" t="n">
-        <v>5940.903</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-2113064.414220715</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C374" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D374" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E374" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F374" t="n">
-        <v>10</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-2113054.414220715</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C375" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D375" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E375" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F375" t="n">
-        <v>44000</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-2157054.414220715</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C376" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D376" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E376" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F376" t="n">
-        <v>41383.1685</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-2157054.414220715</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C377" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D377" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E377" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F377" t="n">
-        <v>92707</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-2157054.414220715</v>
-      </c>
-      <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C378" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D378" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E378" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F378" t="n">
-        <v>276000</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-2157054.414220715</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C379" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D379" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E379" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F379" t="n">
-        <v>92000</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-2157054.414220715</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C380" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D380" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E380" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F380" t="n">
-        <v>92000</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-2157054.414220715</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C381" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D381" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E381" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F381" t="n">
-        <v>4266.4436</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-2161320.857820715</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C382" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D382" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E382" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F382" t="n">
-        <v>29290.6033</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-2161320.857820715</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C383" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D383" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E383" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F383" t="n">
-        <v>63000</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-2161320.857820715</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C384" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D384" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E384" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F384" t="n">
-        <v>127200</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-2161320.857820715</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C385" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D385" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E385" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F385" t="n">
-        <v>63000</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-2161320.857820715</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C386" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D386" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E386" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F386" t="n">
-        <v>127462</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-2161320.857820715</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C387" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D387" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E387" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F387" t="n">
-        <v>127472</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-2161320.857820715</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C388" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D388" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E388" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F388" t="n">
-        <v>63731</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-2161320.857820715</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C389" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D389" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E389" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F389" t="n">
-        <v>64738.7782</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-2096582.079620715</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C390" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D390" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E390" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F390" t="n">
-        <v>63223.5742</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-2159805.653820715</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C391" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D391" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E391" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F391" t="n">
-        <v>42467.953</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-2117337.700820715</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C392" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D392" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E392" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F392" t="n">
-        <v>106000</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-2223337.700820715</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C393" t="n">
-        <v>30</v>
-      </c>
-      <c r="D393" t="n">
-        <v>30</v>
-      </c>
-      <c r="E393" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F393" t="n">
-        <v>144403.95</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-2078933.750820715</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C394" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D394" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E394" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F394" t="n">
-        <v>250000</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-2328933.750820715</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C395" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D395" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E395" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F395" t="n">
-        <v>258489.0937</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-2328933.750820715</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C396" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D396" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E396" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F396" t="n">
-        <v>526.7041</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-2328407.046720715</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C397" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D397" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E397" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F397" t="n">
-        <v>193978.5566</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-2522385.603320715</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C398" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D398" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E398" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F398" t="n">
-        <v>5124.3017</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-2522385.603320715</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C399" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D399" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E399" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F399" t="n">
-        <v>8095.0169</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-2514290.586420715</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C400" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D400" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E400" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F400" t="n">
-        <v>248.7323</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-2514539.318720715</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C401" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D401" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E401" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F401" t="n">
-        <v>271400</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-2514539.318720715</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C402" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D402" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E402" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F402" t="n">
-        <v>22613.3572</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-2514539.318720715</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C403" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D403" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E403" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F403" t="n">
-        <v>14370.4688</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-2514539.318720715</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C404" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D404" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E404" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F404" t="n">
-        <v>1029.0476</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-2514539.318720715</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C405" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D405" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E405" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F405" t="n">
-        <v>50466.5765</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-2565005.895220715</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C406" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D406" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E406" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F406" t="n">
-        <v>103579.7627</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-2668585.657920714</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C407" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D407" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E407" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F407" t="n">
-        <v>26273.3378</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-2694858.995720714</v>
-      </c>
-      <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C408" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D408" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E408" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F408" t="n">
-        <v>14671.1788</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-2694858.995720714</v>
-      </c>
-      <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C409" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D409" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E409" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F409" t="n">
-        <v>9788.252</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-2685070.743720714</v>
-      </c>
-      <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>29</v>
-      </c>
-      <c r="C410" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D410" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E410" t="n">
-        <v>29</v>
-      </c>
-      <c r="F410" t="n">
-        <v>72978.158</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-2612092.585720715</v>
-      </c>
-      <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C411" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D411" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E411" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F411" t="n">
-        <v>46333.5813</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-2658426.167020715</v>
-      </c>
-      <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14256,7 +14014,9 @@
       <c r="I412" t="n">
         <v>28.8</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14295,7 +14055,9 @@
       <c r="I413" t="n">
         <v>29.1</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14329,10 +14091,14 @@
         <v>-2584322.951520715</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J414" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14366,10 +14132,14 @@
         <v>-3036993.333420715</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J415" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14406,7 +14176,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14443,7 +14215,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14480,7 +14254,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14517,7 +14293,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14554,7 +14332,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14591,7 +14371,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14625,10 +14407,14 @@
         <v>-3055782.145372067</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J422" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14662,10 +14448,14 @@
         <v>-2624666.409472066</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J423" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14702,7 +14492,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14739,7 +14531,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14776,7 +14570,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14813,7 +14609,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14850,7 +14648,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14884,10 +14684,14 @@
         <v>-2657848.448372066</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J429" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14921,10 +14725,14 @@
         <v>-2646725.860472066</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J430" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14958,10 +14766,14 @@
         <v>-2646745.860472066</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J431" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14998,7 +14810,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15032,10 +14846,14 @@
         <v>-2676100.527972066</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J433" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15069,10 +14887,14 @@
         <v>-2685109.439535331</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J434" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15106,10 +14928,14 @@
         <v>-2739298.681389753</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J435" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15143,10 +14969,14 @@
         <v>-2739214.681389753</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J436" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15180,10 +15010,14 @@
         <v>-2672853.596389753</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J437" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15217,10 +15051,14 @@
         <v>-2672863.596389753</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J438" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15254,10 +15092,14 @@
         <v>-2658074.928089753</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J439" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15291,10 +15133,14 @@
         <v>-2660403.592289753</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J440" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15328,10 +15174,14 @@
         <v>-2373800.424689753</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J441" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15365,10 +15215,14 @@
         <v>-2236269.766889753</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J442" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15402,10 +15256,14 @@
         <v>-2035702.531389753</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>30</v>
+      </c>
+      <c r="J443" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15442,7 +15300,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15476,10 +15336,14 @@
         <v>-2083386.545989753</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J445" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15516,7 +15380,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15553,7 +15419,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15590,7 +15458,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15627,7 +15497,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15664,7 +15536,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15701,7 +15575,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15738,7 +15614,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15775,7 +15653,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15812,7 +15692,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15849,7 +15731,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15886,7 +15770,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15920,10 +15806,14 @@
         <v>-2516612.952139921</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J457" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15960,7 +15850,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15997,7 +15889,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16034,7 +15928,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16068,10 +15964,14 @@
         <v>-2560637.180239921</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J461" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16105,10 +16005,14 @@
         <v>-2560637.180239921</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J462" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16142,10 +16046,14 @@
         <v>-2560647.180239921</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J463" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16182,7 +16090,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16219,7 +16129,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16256,7 +16168,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16293,7 +16207,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16330,7 +16246,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16367,7 +16285,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16401,10 +16321,14 @@
         <v>-2548497.852439921</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J470" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16438,10 +16362,14 @@
         <v>-2539276.213239921</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J471" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16475,10 +16403,14 @@
         <v>-2535022.430639921</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J472" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16512,10 +16444,14 @@
         <v>-2535497.996739921</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J473" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16549,10 +16485,14 @@
         <v>-2525130.161639921</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J474" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16589,7 +16529,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16626,7 +16568,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16660,10 +16604,14 @@
         <v>-2521480.542539922</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J477" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16697,10 +16645,14 @@
         <v>-2521480.542539922</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J478" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16734,10 +16686,14 @@
         <v>-2527829.707439922</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J479" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16771,10 +16727,14 @@
         <v>-2527829.707439922</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J480" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16808,10 +16768,14 @@
         <v>-2516141.197239922</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J481" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16845,10 +16809,14 @@
         <v>-2377910.213839922</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J482" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16882,10 +16850,14 @@
         <v>-2377910.213839922</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>30</v>
+      </c>
+      <c r="J483" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16922,7 +16894,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16959,7 +16933,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16996,7 +16972,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17033,7 +17011,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17067,16 +17047,20 @@
         <v>-1946759.162239922</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="n">
+        <v>1</v>
+      </c>
       <c r="M488" t="inlineStr"/>
     </row>
     <row r="489">
@@ -17105,8 +17089,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17138,8 +17128,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17171,8 +17167,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17204,8 +17206,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17237,8 +17245,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17270,8 +17284,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17303,8 +17323,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17333,11 +17359,17 @@
         <v>-1349578.470767614</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17366,11 +17398,17 @@
         <v>-1349578.470767614</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17399,11 +17437,17 @@
         <v>-1515048.160967614</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17432,11 +17476,17 @@
         <v>-1515820.446667613</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
